--- a/output/2026-02-05.xlsx
+++ b/output/2026-02-05.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -560,778 +560,778 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>SpaceX正推进Starlink全球覆盖，包括申请建设百万卫星的NGSO系统和在委内瑞拉提供服务，同时Grok Imagine模型在视频生成领域排名第一。</t>
+          <t>AI摘要暂时不可用</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>RT @teslaownersSV: China now generates 33.2% of the world’s electricity, over 2× the USA (~14.2%).
+That’s 1/3 of global capacity—alone.
+Re…</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/elonmusk/status/2019274719338561901</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>831</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 04:59:44 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>@elonmusk</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Elon Musk</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>RT @PeterDiamandis: China is generating 40% more electricity than the US &amp;amp; EU combined. In the global race where energy = intelligence, we…</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/elonmusk/status/2019272016403263816</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>841</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 04:48:59 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>@elonmusk</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Elon Musk</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>RT @cb_doge: BREAKING: Grok keeps hitting #1 in more countries as downloads surge worldwide.
+Now ranked #1 in Kazakhstan across Top Overal…</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/elonmusk/status/2019271880449110523</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>439</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 04:48:27 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>@elonmusk</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Elon Musk</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>RT @grok: Get creative with Grok Imagine video. Try it now for free.</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/elonmusk/status/2019269660404031672</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>454</v>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 04:39:37 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>@elonmusk</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Elon Musk</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>RT @JessePeltan: NYC would be a net *exporter* of electricity if you covered roofs and parking lots.</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/elonmusk/status/2019268161368129996</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>307</v>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 04:33:40 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>@elonmusk</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Elon Musk</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>RT @techdevnotes: Grok Imagine is the Fastest Video Model while being SOTA #1 https://t.co/p2zDgRoiUt</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/elonmusk/status/2019266363127406965</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>253</v>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 04:26:31 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>@elonmusk</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Elon Musk</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>Starlink now available in Tajikistan 🇹🇯</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/elonmusk/status/2019257533593186501</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>55238</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>3909</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 03:51:26 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>@elonmusk</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Elon Musk</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>RT @EthanHe_42: Grok Imagine 1.0 tops all video arenas: LMarena, artificial analysis, and design arena🚀</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/elonmusk/status/2019250114230108334</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>332</v>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 03:21:57 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>@elonmusk</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Elon Musk</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>RT @BrendanCarrFCC: The FCC welcomes and now seeks comment on the SpaceX application for Orbital Data Centers.
 The proposed system would s…</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019213048205201746</t>
         </is>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="7" t="n">
-        <v>731</v>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="H10" s="7" t="n">
+        <v>1286</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>Thu Feb 05 00:54:40 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>@elonmusk</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Elon Musk</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr"/>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>RT @SawyerMerritt: UPDATE: The FCC has accepted SpaceX’s filing for a new non-geostationary orbit (NGSO) system of up to one million satell…</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019212175899025886</t>
         </is>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="n">
-        <v>356</v>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="H11" s="7" t="n">
+        <v>969</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>Thu Feb 05 00:51:12 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>@elonmusk</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Elon Musk</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Whoever said “money can’t buy happiness” really knew what they were talking about 😔</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019212107020136611</t>
         </is>
       </c>
-      <c r="G4" s="7" t="n">
-        <v>56170</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>4401</v>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="G12" s="7" t="n">
+        <v>320704</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>31879</v>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>Thu Feb 05 00:50:56 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>@elonmusk</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Elon Musk</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Important to register your Starlink terminal if in Ukraine</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019209803403506086</t>
         </is>
       </c>
-      <c r="G5" s="7" t="n">
-        <v>5620</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>746</v>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="G13" s="7" t="n">
+        <v>23018</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>2450</v>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>Thu Feb 05 00:41:46 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>@elonmusk</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Elon Musk</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>RT @niccruzpatane: Elon Musk on building a Tesla Terafab:
 “Well, we make a little fab, and see what happens. Make our mistakes at a small…</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019209338758607340</t>
         </is>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="7" t="n">
-        <v>174</v>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="H14" s="7" t="n">
+        <v>472</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>Thu Feb 05 00:39:56 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>@elonmusk</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>Elon Musk</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>RT @Teslaconomics: FCC has formally accepted and is now seeking public comments on the major application from @SpaceX! 
 This application i…</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019207978805862827</t>
         </is>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="7" t="n">
-        <v>217</v>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="H15" s="7" t="n">
+        <v>475</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>Thu Feb 05 00:34:31 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>@elonmusk</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>Elon Musk</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr"/>
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>RT @SawyerMerritt: Starlink Wi-Fi review on United Airlines:
 "If I weren't buckled into a seat, I might not have noticed that I was using…</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F16" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019199285682925666</t>
         </is>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="7" t="n">
-        <v>302</v>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="H16" s="7" t="n">
+        <v>533</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>Wed Feb 04 23:59:59 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>@elonmusk</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Elon Musk</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr"/>
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>RT @xdNiBoR: As of today, Starlink is officially available in Venezuela!
 They launched with a promotional 50% discount on the residential…</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F17" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019199046058209586</t>
         </is>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="7" t="n">
-        <v>321</v>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="H17" s="7" t="n">
+        <v>685</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>Wed Feb 04 23:59:02 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>@elonmusk</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Elon Musk</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr"/>
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>RT @collision: New season of Cheeky Pint starts tomorrow! First up: @dwarkesh_sp and I sit down with @elonmusk to discuss space GPUs and mu…</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F18" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019198499947180462</t>
         </is>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="7" t="n">
-        <v>645</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="H18" s="7" t="n">
+        <v>1122</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>Wed Feb 04 23:56:51 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>@elonmusk</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>Elon Musk</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr"/>
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>RT @EthanHe_42: Our video generation model dominates the arena 🥇, 50 ELO higher than second place. Try @Grok Imagine 1.0</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F19" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019175263230419052</t>
         </is>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="7" t="n">
-        <v>260</v>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="H19" s="7" t="n">
+        <v>403</v>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>Wed Feb 04 22:24:31 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+    <row r="20" ht="30" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>@elonmusk</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Elon Musk</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr"/>
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Grok Imagine rank 1</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019164163906629852</t>
         </is>
       </c>
-      <c r="G12" s="7" t="n">
-        <v>12339</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>1745</v>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="G20" s="7" t="n">
+        <v>20840</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>2939</v>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>Wed Feb 04 21:40:25 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>@elonmusk</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>Elon Musk</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>RT @cb_doge: Grok v/s ChatGPT
 Grok pulls real-time info from current events, while ChatGPT has no clue about real-time events. When asked…</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t>https://x.com/elonmusk/status/2019112088946565147</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <v>932</v>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>Wed Feb 04 18:13:29 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>@elonmusk</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Elon Musk</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Yeah</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/elonmusk/status/2019110385740312617</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>15362</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v>1873</v>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>Wed Feb 04 18:06:43 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>@elonmusk</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Elon Musk</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>Accurate</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/elonmusk/status/2019110225874415759</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>54102</v>
-      </c>
-      <c r="H15" s="7" t="n">
-        <v>9286</v>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>Wed Feb 04 18:06:05 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>@elonmusk</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Elon Musk</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>Get awesome Internet anywhere!
-From remote mountain tops to Antarctica, Starlink is the only fast, low ping global Internet system.</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/elonmusk/status/2019109692786766223</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>18937</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>2587</v>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>Wed Feb 04 18:03:58 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>@elonmusk</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Elon Musk</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>Senator Lee is correct</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/elonmusk/status/2019107919233708291</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>39753</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <v>8023</v>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>Wed Feb 04 17:56:55 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>@elonmusk</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Elon Musk</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>RT @teslaownersSV: 🚨 BREAKING: Grok just smashed 60 MILLION monthly active users on mobile in January 2026  
-   +44% downloads MoM → fourth…</t>
-        </is>
-      </c>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/elonmusk/status/2019090100223975787</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <v>586</v>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>Wed Feb 04 16:46:07 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>@elonmusk</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Elon Musk</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>Major crime scene</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/elonmusk/status/2019073176588919068</t>
-        </is>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>105178</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <v>26809</v>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Wed Feb 04 15:38:52 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>@elonmusk</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Elon Musk</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>He makes a good point. Saying this about any other race would be condemned immediately and should be.
-So why is it not incredibly racist and wrong to say this about Whites?</t>
-        </is>
-      </c>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/elonmusk/status/2019072195645866037</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>92868</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <v>19444</v>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Wed Feb 04 15:34:58 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>@elonmusk</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Elon Musk</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>RT @NateFriedman97: I caught this guy paying protestors at the @DemSocialists rally in NYC. This is all manufactured chaos and they're doin…</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/elonmusk/status/2019071565800079691</t>
         </is>
       </c>
       <c r="G21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>9279</v>
+        <v>1098</v>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>Wed Feb 04 15:32:28 +0000 2026</t>
+          <t>Wed Feb 04 18:13:29 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>OpenAI发布Codex应用，这是一个用于构建Agent的强大命令中心，并推出GPT-5可调节思考时间功能，同时展示了GPT-5.2在LaTeX项目中辅助科学研究的新工具Prism。</t>
+          <t>AI摘要暂时不可用</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="G22" s="7" t="n">
-        <v>1097</v>
+        <v>2457</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="7" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="G24" s="7" t="n">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
@@ -1528,10 +1528,10 @@
         </is>
       </c>
       <c r="G26" s="7" t="n">
-        <v>9048</v>
+        <v>9068</v>
       </c>
       <c r="H26" s="7" t="n">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="G27" s="7" t="n">
-        <v>3985</v>
+        <v>3987</v>
       </c>
       <c r="H27" s="7" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="G28" s="7" t="n">
-        <v>8772</v>
+        <v>8770</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>658</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>OpenAI的Codex活跃用户突破百万，推出Mac版应用并提升付费用户速率限制，同时关注AI安全及模型风险防范，并期待与英伟达的长期合作。</t>
+          <t>OpenAI发布Codex Mac应用，用户突破百万，计划加强AI安全防范，并对Anthropic广告提出质疑，同时API业务月新增ARR超10亿美元。</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="G29" s="7" t="n">
-        <v>1597</v>
+        <v>5750</v>
       </c>
       <c r="H29" s="7" t="n">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="G30" s="7" t="n">
-        <v>1968</v>
+        <v>2693</v>
       </c>
       <c r="H30" s="7" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="G31" s="7" t="n">
-        <v>11299</v>
+        <v>17853</v>
       </c>
       <c r="H31" s="7" t="n">
-        <v>591</v>
+        <v>963</v>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="G32" s="7" t="n">
-        <v>4162</v>
+        <v>4299</v>
       </c>
       <c r="H32" s="7" t="n">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="G33" s="7" t="n">
-        <v>45728</v>
+        <v>46560</v>
       </c>
       <c r="H33" s="7" t="n">
-        <v>1899</v>
+        <v>1930</v>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="G34" s="7" t="n">
-        <v>13087</v>
+        <v>13206</v>
       </c>
       <c r="H34" s="7" t="n">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -1889,10 +1889,10 @@
         </is>
       </c>
       <c r="G35" s="7" t="n">
-        <v>8990</v>
+        <v>9207</v>
       </c>
       <c r="H35" s="7" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="G36" s="7" t="n">
-        <v>15221</v>
+        <v>15246</v>
       </c>
       <c r="H36" s="7" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
@@ -1970,10 +1970,10 @@
         </is>
       </c>
       <c r="G37" s="7" t="n">
-        <v>22425</v>
+        <v>22504</v>
       </c>
       <c r="H37" s="7" t="n">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="G38" s="7" t="n">
-        <v>6714</v>
+        <v>6725</v>
       </c>
       <c r="H38" s="7" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
@@ -2049,10 +2049,10 @@
         </is>
       </c>
       <c r="G39" s="7" t="n">
-        <v>10791</v>
+        <v>10802</v>
       </c>
       <c r="H39" s="7" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="G40" s="7" t="n">
-        <v>7132</v>
+        <v>7157</v>
       </c>
       <c r="H40" s="7" t="n">
         <v>314</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="7" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
@@ -2210,10 +2210,10 @@
         </is>
       </c>
       <c r="G43" s="7" t="n">
-        <v>8293</v>
+        <v>8297</v>
       </c>
       <c r="H43" s="7" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>8840</v>
       </c>
       <c r="H44" s="7" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="G45" s="7" t="n">
-        <v>11869</v>
+        <v>11874</v>
       </c>
       <c r="H45" s="7" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>39218</v>
       </c>
       <c r="H46" s="7" t="n">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
@@ -2359,51 +2359,91 @@
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>AI摘要暂时不可用</t>
+          <t>Vitalik关注以太坊L2进展缓慢、L1扩容、链上机制设计、创作者经济、DAO发展以及自托管计算的未来，并强调协议简单性的重要性。</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>Have been following reactions to what I said about L2s about 1.5 days ago.
+One important thing that I believe is: "make yet another EVM chain and add an optimistic bridge to Ethereum with a 1 week delay" is to infra what forking Compound is to governance - something we've done</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/VitalikButerin/status/2019341766407725170</t>
+        </is>
+      </c>
+      <c r="G47" s="7" t="n">
+        <v>2571</v>
+      </c>
+      <c r="H47" s="7" t="n">
+        <v>304</v>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 09:26:09 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="30" customHeight="1">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>@VitalikButerin</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Vitalik Buterin</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr"/>
+      <c r="E48" s="5" t="inlineStr">
         <is>
           <t>There have recently been some discussions on the ongoing role of L2s in the Ethereum ecosystem, especially in the face of two facts:
 * L2s' progress to stage 2 (and, secondarily, on interop) has been far slower and more difficult than originally expected
 * L1 itself is scaling,</t>
         </is>
       </c>
-      <c r="F47" s="6" t="inlineStr">
+      <c r="F48" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2018711006394843585</t>
         </is>
       </c>
-      <c r="G47" s="7" t="n">
-        <v>9523</v>
-      </c>
-      <c r="H47" s="7" t="n">
-        <v>1566</v>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
+      <c r="G48" s="7" t="n">
+        <v>9866</v>
+      </c>
+      <c r="H48" s="7" t="n">
+        <v>1630</v>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
         <is>
           <t>Tue Feb 03 15:39:44 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="30" customHeight="1">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
+    <row r="49" ht="30" customHeight="1">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D48" s="5" t="inlineStr"/>
-      <c r="E48" s="5" t="inlineStr">
+      <c r="D49" s="5" t="inlineStr"/>
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t>I actually don't think it's complicated.
 IMO the future of onchain mechanism design is mostly going to fit into one pattern:
@@ -2411,180 +2451,141 @@
 In other</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
+      <c r="F49" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2018208031201190294</t>
         </is>
       </c>
-      <c r="G48" s="7" t="n">
-        <v>1220</v>
-      </c>
-      <c r="H48" s="7" t="n">
-        <v>153</v>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
+      <c r="G49" s="7" t="n">
+        <v>1239</v>
+      </c>
+      <c r="H49" s="7" t="n">
+        <v>155</v>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
         <is>
           <t>Mon Feb 02 06:21:05 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="30" customHeight="1">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
+    <row r="50" ht="30" customHeight="1">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D49" s="5" t="inlineStr"/>
-      <c r="E49" s="5" t="inlineStr">
+      <c r="D50" s="5" t="inlineStr"/>
+      <c r="E50" s="5" t="inlineStr">
         <is>
           <t>How I would do creator coins
 We've seen about 10 years of people trying to do content incentivization in crypto, from early-stage platforms like Bihu and Steemit, to BitClout in 2021, to Zora, to tipping features inside of decentralized social, and more. So far, I think we have</t>
         </is>
       </c>
-      <c r="F49" s="6" t="inlineStr">
+      <c r="F50" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2017956762347835488</t>
         </is>
       </c>
-      <c r="G49" s="7" t="n">
-        <v>2888</v>
-      </c>
-      <c r="H49" s="7" t="n">
-        <v>377</v>
-      </c>
-      <c r="I49" s="2" t="inlineStr">
+      <c r="G50" s="7" t="n">
+        <v>2906</v>
+      </c>
+      <c r="H50" s="7" t="n">
+        <v>382</v>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>Sun Feb 01 13:42:38 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="30" customHeight="1">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
+    <row r="51" ht="30" customHeight="1">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D50" s="5" t="inlineStr"/>
-      <c r="E50" s="5" t="inlineStr">
+      <c r="D51" s="5" t="inlineStr"/>
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>In these five years, the Ethereum Foundation is entering a period of mild austerity, in order to be able to simultaneously meet two goals:
 1. Deliver on an aggressive roadmap that ensures Ethereum's status as a performant and scalable world computer that does not compromise on</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
+      <c r="F51" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2017145595819933745</t>
         </is>
       </c>
-      <c r="G50" s="7" t="n">
-        <v>3900</v>
-      </c>
-      <c r="H50" s="7" t="n">
-        <v>554</v>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
+      <c r="G51" s="7" t="n">
+        <v>3989</v>
+      </c>
+      <c r="H51" s="7" t="n">
+        <v>573</v>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
         <is>
           <t>Fri Jan 30 07:59:21 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="30" customHeight="1">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
+    <row r="52" ht="30" customHeight="1">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D51" s="5" t="inlineStr"/>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="D52" s="5" t="inlineStr"/>
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>RT @thedaofund: TheDAO is back. BULLISH
 A decade later, we’re opening a new chapter.
 TheDAO Security Fund: activating 75,000+ ETH to stre…</t>
         </is>
       </c>
-      <c r="F51" s="6" t="inlineStr">
+      <c r="F52" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2016905367918195192</t>
-        </is>
-      </c>
-      <c r="G51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="7" t="n">
-        <v>259</v>
-      </c>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>Thu Jan 29 16:04:46 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="30" customHeight="1">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>@VitalikButerin</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>Vitalik Buterin</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr"/>
-      <c r="E52" s="5" t="inlineStr">
-        <is>
-          <t>RT @VitalikButerin: @TrustlessState I'll do the ill-advised thing and try to explain my own thought process and constraints (and possibly u…</t>
-        </is>
-      </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/VitalikButerin/status/2016578097102147807</t>
         </is>
       </c>
       <c r="G52" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="7" t="n">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>Wed Jan 28 18:24:19 +0000 2026</t>
+          <t>Thu Jan 29 16:04:46 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -2607,23 +2608,23 @@
       <c r="D53" s="5" t="inlineStr"/>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>The situation in Iran is continuing to get much worse. Much respect for everyone going through extreme danger to try to increase the chance that Iranian people can be free.</t>
+          <t>RT @VitalikButerin: @TrustlessState I'll do the ill-advised thing and try to explain my own thought process and constraints (and possibly u…</t>
         </is>
       </c>
       <c r="F53" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/VitalikButerin/status/2016460401068614076</t>
+          <t>https://x.com/VitalikButerin/status/2016578097102147807</t>
         </is>
       </c>
       <c r="G53" s="7" t="n">
-        <v>11242</v>
+        <v>0</v>
       </c>
       <c r="H53" s="7" t="n">
-        <v>3688</v>
+        <v>198</v>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>Wed Jan 28 10:36:38 +0000 2026</t>
+          <t>Wed Jan 28 18:24:19 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -2645,6 +2646,45 @@
       </c>
       <c r="D54" s="5" t="inlineStr"/>
       <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t>The situation in Iran is continuing to get much worse. Much respect for everyone going through extreme danger to try to increase the chance that Iranian people can be free.</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/VitalikButerin/status/2016460401068614076</t>
+        </is>
+      </c>
+      <c r="G54" s="7" t="n">
+        <v>11176</v>
+      </c>
+      <c r="H54" s="7" t="n">
+        <v>3640</v>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>Wed Jan 28 10:36:38 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>@VitalikButerin</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Vitalik Buterin</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr"/>
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>This morning I needed to check which addresses were signers on my multisig.
 I was on my phone, and did not have the Safe app installed there.
@@ -2652,41 +2692,41 @@
 These https://t.co/UVEbU8DtTg</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr">
+      <c r="F55" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2016424844682723819</t>
         </is>
       </c>
-      <c r="G54" s="7" t="n">
-        <v>1921</v>
-      </c>
-      <c r="H54" s="7" t="n">
-        <v>171</v>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
+      <c r="G55" s="7" t="n">
+        <v>1924</v>
+      </c>
+      <c r="H55" s="7" t="n">
+        <v>173</v>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
         <is>
           <t>Wed Jan 28 08:15:20 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="30" customHeight="1">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
+    <row r="56" ht="30" customHeight="1">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr"/>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="D56" s="5" t="inlineStr"/>
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>The scaling hierarchy in blockchains:
 Computation &amp;gt; data &amp;gt; state
@@ -2694,163 +2734,163 @@
 Data is in the</t>
         </is>
       </c>
-      <c r="F55" s="6" t="inlineStr">
+      <c r="F56" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2015965780727496907</t>
         </is>
       </c>
-      <c r="G55" s="7" t="n">
-        <v>1790</v>
-      </c>
-      <c r="H55" s="7" t="n">
-        <v>234</v>
-      </c>
-      <c r="I55" s="2" t="inlineStr">
+      <c r="G56" s="7" t="n">
+        <v>1794</v>
+      </c>
+      <c r="H56" s="7" t="n">
+        <v>236</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>Tue Jan 27 01:51:11 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="30" customHeight="1">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="inlineStr">
+    <row r="57" ht="30" customHeight="1">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D56" s="5" t="inlineStr"/>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="D57" s="5" t="inlineStr"/>
+      <c r="E57" s="5" t="inlineStr">
         <is>
           <t>I no longer agree with this previous tweet of mine - since 2017, I have become a much more willing connoisseur of mountains. It's worth explaining why.
 https://t.co/SRvRtuFKQu
 First, the original context. That tweet was in a debate with Ian Grigg, who argued that blockchains</t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr">
+      <c r="F57" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2015599527370293422</t>
         </is>
       </c>
-      <c r="G56" s="7" t="n">
-        <v>2337</v>
-      </c>
-      <c r="H56" s="7" t="n">
-        <v>321</v>
-      </c>
-      <c r="I56" s="2" t="inlineStr">
+      <c r="G57" s="7" t="n">
+        <v>2338</v>
+      </c>
+      <c r="H57" s="7" t="n">
+        <v>323</v>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
         <is>
           <t>Mon Jan 26 01:35:50 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="30" customHeight="1">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="inlineStr">
+    <row r="58" ht="30" customHeight="1">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D57" s="5" t="inlineStr"/>
-      <c r="E57" s="5" t="inlineStr">
+      <c r="D58" s="5" t="inlineStr"/>
+      <c r="E58" s="5" t="inlineStr">
         <is>
           <t>The relationship between "institutions" and "cypherpunk" is complex and needs to be understood properly. In truth, institutions (both governments and corporations) are neither guaranteed friend nor foe.
 Exhibit A: https://t.co/YsbBgztMIN European Union seeking to aggressively</t>
         </is>
       </c>
-      <c r="F57" s="6" t="inlineStr">
+      <c r="F58" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2014823681042874455</t>
         </is>
       </c>
-      <c r="G57" s="7" t="n">
-        <v>1790</v>
-      </c>
-      <c r="H57" s="7" t="n">
-        <v>248</v>
-      </c>
-      <c r="I57" s="2" t="inlineStr">
+      <c r="G58" s="7" t="n">
+        <v>1792</v>
+      </c>
+      <c r="H58" s="7" t="n">
+        <v>250</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>Fri Jan 23 22:12:53 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="30" customHeight="1">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="inlineStr">
+    <row r="59" ht="30" customHeight="1">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D58" s="5" t="inlineStr"/>
-      <c r="E58" s="5" t="inlineStr">
+      <c r="D59" s="5" t="inlineStr"/>
+      <c r="E59" s="5" t="inlineStr">
         <is>
           <t>RT @wublockchain12: 近期“嘴撸”产品被封，引发大家对去中心化社交的思考。
 @VitalikButerin、@suji_yan、@colinwu 将在今天（1 月 23 日）下午 3 点的推特 space 与中文社区交流。
 为什么去中心化社交产品很重要？…</t>
         </is>
       </c>
-      <c r="F58" s="6" t="inlineStr">
+      <c r="F59" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2014597119123005634</t>
         </is>
       </c>
-      <c r="G58" s="7" t="n">
+      <c r="G59" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H58" s="7" t="n">
-        <v>65</v>
-      </c>
-      <c r="I58" s="2" t="inlineStr">
+      <c r="H59" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>Fri Jan 23 07:12:37 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="30" customHeight="1">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="inlineStr">
+    <row r="60" ht="30" customHeight="1">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D59" s="5" t="inlineStr"/>
-      <c r="E59" s="5" t="inlineStr">
+      <c r="D60" s="5" t="inlineStr"/>
+      <c r="E60" s="5" t="inlineStr">
         <is>
           <t>2026 is the year we take back lost ground in computing self-sovereignty.
 But this applies far beyond the blockchain world.
@@ -2859,219 +2899,180 @@
 *</t>
         </is>
       </c>
-      <c r="F59" s="6" t="inlineStr">
+      <c r="F60" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2014454477152256415</t>
         </is>
       </c>
-      <c r="G59" s="7" t="n">
-        <v>3666</v>
-      </c>
-      <c r="H59" s="7" t="n">
-        <v>511</v>
-      </c>
-      <c r="I59" s="2" t="inlineStr">
+      <c r="G60" s="7" t="n">
+        <v>3667</v>
+      </c>
+      <c r="H60" s="7" t="n">
+        <v>513</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>Thu Jan 22 21:45:48 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="30" customHeight="1">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="inlineStr">
+    <row r="61" ht="30" customHeight="1">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D60" s="5" t="inlineStr"/>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="D61" s="5" t="inlineStr"/>
+      <c r="E61" s="5" t="inlineStr">
         <is>
           <t>In 2026, I plan to be fully back to decentralized social.
 If we want a better society, we need better mass communication tools. We need mass communication tools that surface the best information and arguments and help people find points of agreement. We need mass communication</t>
         </is>
       </c>
-      <c r="F60" s="6" t="inlineStr">
+      <c r="F61" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2013884907659944205</t>
         </is>
       </c>
-      <c r="G60" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="H60" s="7" t="n">
-        <v>649</v>
-      </c>
-      <c r="I60" s="2" t="inlineStr">
+      <c r="G61" s="7" t="n">
+        <v>4285</v>
+      </c>
+      <c r="H61" s="7" t="n">
+        <v>648</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>Wed Jan 21 08:02:32 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="30" customHeight="1">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
+    <row r="62" ht="30" customHeight="1">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D61" s="5" t="inlineStr"/>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="D62" s="5" t="inlineStr"/>
+      <c r="E62" s="5" t="inlineStr">
         <is>
           <t>RT @VitalikButerin: @donnoh_eth I'm definitely more in favor of native rollups than before.
 Before a big reason why I was against, is that…</t>
         </is>
       </c>
-      <c r="F61" s="6" t="inlineStr">
+      <c r="F62" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2013149497329602809</t>
         </is>
       </c>
-      <c r="G61" s="7" t="n">
+      <c r="G62" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H61" s="7" t="n">
-        <v>168</v>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
+      <c r="H62" s="7" t="n">
+        <v>169</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
         <is>
           <t>Mon Jan 19 07:20:17 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="30" customHeight="1">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B62" s="3" t="inlineStr">
+    <row r="63" ht="30" customHeight="1">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D62" s="5" t="inlineStr"/>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="D63" s="5" t="inlineStr"/>
+      <c r="E63" s="5" t="inlineStr">
         <is>
           <t>We need more DAOs - but different and better DAOs.
 The original drive to build Ethereum was heavily inspired by decentralized autonomous organizations: systems of code and rules that lived on decentralized networks that could manage resources and direct activity, more</t>
         </is>
       </c>
-      <c r="F62" s="6" t="inlineStr">
+      <c r="F63" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2013145235447042067</t>
         </is>
       </c>
-      <c r="G62" s="7" t="n">
-        <v>3334</v>
-      </c>
-      <c r="H62" s="7" t="n">
-        <v>538</v>
-      </c>
-      <c r="I62" s="2" t="inlineStr">
+      <c r="G63" s="7" t="n">
+        <v>3335</v>
+      </c>
+      <c r="H63" s="7" t="n">
+        <v>539</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
         <is>
           <t>Mon Jan 19 07:03:21 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="30" customHeight="1">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="inlineStr">
+    <row r="64" ht="30" customHeight="1">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>@VitalikButerin</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>Vitalik Buterin</t>
         </is>
       </c>
-      <c r="D63" s="5" t="inlineStr"/>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="D64" s="5" t="inlineStr"/>
+      <c r="E64" s="5" t="inlineStr">
         <is>
           <t>An important, and perenially underrated, aspect of "trustlessness", "passing the walkaway test" and "self-sovereignty" is protocol simplicity.
 Even if a protocol is super decentralized with hundreds of thousands of nodes, and it has 49% byzantine fault tolerance, and nodes fully https://t.co/kvzkg11M3c</t>
         </is>
       </c>
-      <c r="F63" s="6" t="inlineStr">
+      <c r="F64" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2012819160426807639</t>
         </is>
       </c>
-      <c r="G63" s="7" t="n">
+      <c r="G64" s="7" t="n">
         <v>3755</v>
       </c>
-      <c r="H63" s="7" t="n">
-        <v>525</v>
-      </c>
-      <c r="I63" s="2" t="inlineStr">
+      <c r="H64" s="7" t="n">
+        <v>527</v>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
         <is>
           <t>Sun Jan 18 09:27:38 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" ht="30" customHeight="1">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t>@VitalikButerin</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>Vitalik Buterin</t>
-        </is>
-      </c>
-      <c r="D64" s="5" t="inlineStr"/>
-      <c r="E64" s="5" t="inlineStr">
-        <is>
-          <t>RT @sebkrier: It's remarkable, and depressing, to realize how few people are truly polycentric / classically liberal. Particularly amongst…</t>
-        </is>
-      </c>
-      <c r="F64" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/VitalikButerin/status/2012572374202229088</t>
-        </is>
-      </c>
-      <c r="G64" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="7" t="n">
-        <v>119</v>
-      </c>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>Sat Jan 17 17:07:00 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -3093,69 +3094,65 @@
       </c>
       <c r="D65" s="5" t="inlineStr"/>
       <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t>RT @sebkrier: It's remarkable, and depressing, to realize how few people are truly polycentric / classically liberal. Particularly amongst…</t>
+        </is>
+      </c>
+      <c r="F65" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/VitalikButerin/status/2012572374202229088</t>
+        </is>
+      </c>
+      <c r="G65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7" t="n">
+        <v>119</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>Sat Jan 17 17:07:00 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="30" customHeight="1">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>@VitalikButerin</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>Vitalik Buterin</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr"/>
+      <c r="E66" s="5" t="inlineStr">
         <is>
           <t>2026 is the year that we take back lost ground in terms of self-sovereignty and trustlessness.
 Some of what this practically means:
 Full nodes: thanks to ZK-EVM and BAL, it will once again become easier to locally run a node and verify the Ethereum chain on your own computer.</t>
         </is>
       </c>
-      <c r="F65" s="6" t="inlineStr">
+      <c r="F66" s="6" t="inlineStr">
         <is>
           <t>https://x.com/VitalikButerin/status/2012231445809435134</t>
         </is>
       </c>
-      <c r="G65" s="7" t="n">
-        <v>6388</v>
-      </c>
-      <c r="H65" s="7" t="n">
-        <v>969</v>
-      </c>
-      <c r="I65" s="2" t="inlineStr">
+      <c r="G66" s="7" t="n">
+        <v>6391</v>
+      </c>
+      <c r="H66" s="7" t="n">
+        <v>970</v>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
         <is>
           <t>Fri Jan 16 18:32:16 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="66" ht="30" customHeight="1">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t>@AndrewYNg</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>Andrew Ng</t>
-        </is>
-      </c>
-      <c r="D66" s="4" t="inlineStr">
-        <is>
-          <t>吴恩达关注美国AI政策对国际合作的影响，并推出了多个关于Agent Skills、文档AI、编码Agent等主题的课程。</t>
-        </is>
-      </c>
-      <c r="E66" s="5" t="inlineStr">
-        <is>
-          <t>U.S. policies are driving allies away from using American AI technology. This is leading to interest in sovereign AI — a nation’s ability to access AI technology without relying on foreign powers. This weakens U.S. influence, but might lead to increased competition and support</t>
-        </is>
-      </c>
-      <c r="F66" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/AndrewYNg/status/2017283482041651303</t>
-        </is>
-      </c>
-      <c r="G66" s="7" t="n">
-        <v>964</v>
-      </c>
-      <c r="H66" s="7" t="n">
-        <v>184</v>
-      </c>
-      <c r="I66" s="2" t="inlineStr">
-        <is>
-          <t>Fri Jan 30 17:07:16 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -3175,66 +3172,70 @@
           <t>Andrew Ng</t>
         </is>
       </c>
-      <c r="D67" s="5" t="inlineStr"/>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>吴恩达关注美国AI政策对国际合作的影响，并持续推出Agent Skills、Gemini CLI、Document AI等相关课程。</t>
+        </is>
+      </c>
       <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t>U.S. policies are driving allies away from using American AI technology. This is leading to interest in sovereign AI — a nation’s ability to access AI technology without relying on foreign powers. This weakens U.S. influence, but might lead to increased competition and support</t>
+        </is>
+      </c>
+      <c r="F67" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AndrewYNg/status/2017283482041651303</t>
+        </is>
+      </c>
+      <c r="G67" s="7" t="n">
+        <v>965</v>
+      </c>
+      <c r="H67" s="7" t="n">
+        <v>185</v>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>Fri Jan 30 17:07:16 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="30" customHeight="1">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>@AndrewYNg</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>Andrew Ng</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="inlineStr"/>
+      <c r="E68" s="5" t="inlineStr">
         <is>
           <t>Important new course: Agent Skills with Anthropic, built with @AnthropicAI and taught by @eschoppik!
 Skills are constructed as folders of instructions that equip agents with on-demand knowledge and workflows. This short course teaches you how to create them following best https://t.co/70UOSyqR7Y</t>
         </is>
       </c>
-      <c r="F67" s="6" t="inlineStr">
+      <c r="F68" s="6" t="inlineStr">
         <is>
           <t>https://x.com/AndrewYNg/status/2016564878098780245</t>
         </is>
       </c>
-      <c r="G67" s="7" t="n">
-        <v>3376</v>
-      </c>
-      <c r="H67" s="7" t="n">
-        <v>426</v>
-      </c>
-      <c r="I67" s="2" t="inlineStr">
+      <c r="G68" s="7" t="n">
+        <v>3385</v>
+      </c>
+      <c r="H68" s="7" t="n">
+        <v>427</v>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
         <is>
           <t>Wed Jan 28 17:31:47 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="68" ht="30" customHeight="1">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B68" s="3" t="inlineStr">
-        <is>
-          <t>@AndrewYNg</t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t>Andrew Ng</t>
-        </is>
-      </c>
-      <c r="D68" s="5" t="inlineStr"/>
-      <c r="E68" s="5" t="inlineStr">
-        <is>
-          <t>How can businesses go beyond using AI for incremental efficiency gains to create transformative impact? I write from the World Economic Forum (WEF) in Davos, Switzerland, where I’ve been speaking with many CEOs about how to use AI for growth. A recurring theme is that running</t>
-        </is>
-      </c>
-      <c r="F68" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/AndrewYNg/status/2014799598863450134</t>
-        </is>
-      </c>
-      <c r="G68" s="7" t="n">
-        <v>721</v>
-      </c>
-      <c r="H68" s="7" t="n">
-        <v>155</v>
-      </c>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>Fri Jan 23 20:37:12 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -3257,63 +3258,63 @@
       <c r="D69" s="5" t="inlineStr"/>
       <c r="E69" s="5" t="inlineStr">
         <is>
+          <t>How can businesses go beyond using AI for incremental efficiency gains to create transformative impact? I write from the World Economic Forum (WEF) in Davos, Switzerland, where I’ve been speaking with many CEOs about how to use AI for growth. A recurring theme is that running</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AndrewYNg/status/2014799598863450134</t>
+        </is>
+      </c>
+      <c r="G69" s="7" t="n">
+        <v>723</v>
+      </c>
+      <c r="H69" s="7" t="n">
+        <v>155</v>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>Fri Jan 23 20:37:12 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="30" customHeight="1">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>@AndrewYNg</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>Andrew Ng</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr"/>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
           <t>New course: Gemini CLI: Code &amp;amp; Create with an Open-Source Agent, built with @googlecloudtech/@geminicli and taught by @JackWoth98.
 Agentic coding assistants like Gemini CLI are transforming how developers work. This short course teaches you to use Google's open-source agent to https://t.co/VqGNAIcjgT</t>
         </is>
       </c>
-      <c r="F69" s="6" t="inlineStr">
+      <c r="F70" s="6" t="inlineStr">
         <is>
           <t>https://x.com/AndrewYNg/status/2014391843056975982</t>
         </is>
       </c>
-      <c r="G69" s="7" t="n">
+      <c r="G70" s="7" t="n">
         <v>1337</v>
       </c>
-      <c r="H69" s="7" t="n">
+      <c r="H70" s="7" t="n">
         <v>197</v>
       </c>
-      <c r="I69" s="2" t="inlineStr">
+      <c r="I70" s="2" t="inlineStr">
         <is>
           <t>Thu Jan 22 17:36:55 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="70" ht="30" customHeight="1">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B70" s="3" t="inlineStr">
-        <is>
-          <t>@AndrewYNg</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>Andrew Ng</t>
-        </is>
-      </c>
-      <c r="D70" s="5" t="inlineStr"/>
-      <c r="E70" s="5" t="inlineStr">
-        <is>
-          <t>https://t.co/Q3Ob7lRXRj</t>
-        </is>
-      </c>
-      <c r="F70" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/AndrewYNg/status/2012232833109315965</t>
-        </is>
-      </c>
-      <c r="G70" s="7" t="n">
-        <v>2865</v>
-      </c>
-      <c r="H70" s="7" t="n">
-        <v>443</v>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>Fri Jan 16 18:37:47 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -3336,103 +3337,103 @@
       <c r="D71" s="5" t="inlineStr"/>
       <c r="E71" s="5" t="inlineStr">
         <is>
+          <t>https://t.co/Q3Ob7lRXRj</t>
+        </is>
+      </c>
+      <c r="F71" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AndrewYNg/status/2012232833109315965</t>
+        </is>
+      </c>
+      <c r="G71" s="7" t="n">
+        <v>2868</v>
+      </c>
+      <c r="H71" s="7" t="n">
+        <v>445</v>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>Fri Jan 16 18:37:47 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="30" customHeight="1">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>@AndrewYNg</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>Andrew Ng</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr"/>
+      <c r="E72" s="5" t="inlineStr">
+        <is>
           <t>New course: Document AI: From OCR to Agentic Doc Extraction, built with @LandingAI, where I'm executive chairman, and taught by David Park and Andrea Kropp.
 Much of the world's data is locked in PDFs, JPEGs, and other documents. This short course shows you how to build agentic https://t.co/dG9SwmFgKq</t>
         </is>
       </c>
-      <c r="F71" s="6" t="inlineStr">
+      <c r="F72" s="6" t="inlineStr">
         <is>
           <t>https://x.com/AndrewYNg/status/2011494188152733971</t>
         </is>
       </c>
-      <c r="G71" s="7" t="n">
+      <c r="G72" s="7" t="n">
         <v>2056</v>
       </c>
-      <c r="H71" s="7" t="n">
+      <c r="H72" s="7" t="n">
         <v>303</v>
       </c>
-      <c r="I71" s="2" t="inlineStr">
+      <c r="I72" s="2" t="inlineStr">
         <is>
           <t>Wed Jan 14 17:42:40 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="30" customHeight="1">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B72" s="3" t="inlineStr">
+    <row r="73" ht="30" customHeight="1">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
         <is>
           <t>@AndrewYNg</t>
         </is>
       </c>
-      <c r="C72" s="3" t="inlineStr">
+      <c r="C73" s="3" t="inlineStr">
         <is>
           <t>Andrew Ng</t>
         </is>
       </c>
-      <c r="D72" s="5" t="inlineStr"/>
-      <c r="E72" s="5" t="inlineStr">
+      <c r="D73" s="5" t="inlineStr"/>
+      <c r="E73" s="5" t="inlineStr">
         <is>
           <t>Happy 2026! Will this be the year we finally achieve AGI? I’d like to propose a new version of the Turing Test, which I’ll call the Turing-AGI Test, to see if we’ve achieved this. I’ll explain in a moment why having a new test is important.
 The public thinks achieving AGI means</t>
         </is>
       </c>
-      <c r="F72" s="6" t="inlineStr">
+      <c r="F73" s="6" t="inlineStr">
         <is>
           <t>https://x.com/AndrewYNg/status/2008578741312836009</t>
         </is>
       </c>
-      <c r="G72" s="7" t="n">
+      <c r="G73" s="7" t="n">
         <v>1530</v>
       </c>
-      <c r="H72" s="7" t="n">
+      <c r="H73" s="7" t="n">
         <v>256</v>
       </c>
-      <c r="I72" s="2" t="inlineStr">
+      <c r="I73" s="2" t="inlineStr">
         <is>
           <t>Tue Jan 06 16:37:44 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" ht="30" customHeight="1">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>@AndrewYNg</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>Andrew Ng</t>
-        </is>
-      </c>
-      <c r="D73" s="5" t="inlineStr"/>
-      <c r="E73" s="5" t="inlineStr">
-        <is>
-          <t>Another year of rapid AI advances has created more opportunities than ever for anyone — including those just entering the field — to build software. In fact, many companies just can’t find enough skilled AI talent. Every winter holiday, I spend some time learning and building,</t>
-        </is>
-      </c>
-      <c r="F73" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/AndrewYNg/status/2005702832524255475</t>
-        </is>
-      </c>
-      <c r="G73" s="7" t="n">
-        <v>1928</v>
-      </c>
-      <c r="H73" s="7" t="n">
-        <v>327</v>
-      </c>
-      <c r="I73" s="2" t="inlineStr">
-        <is>
-          <t>Mon Dec 29 18:09:54 +0000 2025</t>
         </is>
       </c>
     </row>
@@ -3455,23 +3456,23 @@
       <c r="D74" s="5" t="inlineStr"/>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>Lots of buzz on Claude Code here today. This short course, created with Anthropic, is the best way to learn to use it well. Please enjoy it!</t>
+          <t>Another year of rapid AI advances has created more opportunities than ever for anyone — including those just entering the field — to build software. In fact, many companies just can’t find enough skilled AI talent. Every winter holiday, I spend some time learning and building,</t>
         </is>
       </c>
       <c r="F74" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/AndrewYNg/status/2005442816571474342</t>
+          <t>https://x.com/AndrewYNg/status/2005702832524255475</t>
         </is>
       </c>
       <c r="G74" s="7" t="n">
-        <v>5814</v>
+        <v>1930</v>
       </c>
       <c r="H74" s="7" t="n">
-        <v>664</v>
+        <v>326</v>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>Mon Dec 29 00:56:41 +0000 2025</t>
+          <t>Mon Dec 29 18:09:54 +0000 2025</t>
         </is>
       </c>
     </row>
@@ -3494,23 +3495,23 @@
       <c r="D75" s="5" t="inlineStr"/>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>As amazing as LLMs are, improving their knowledge today involves a more piecemeal process than is widely appreciated. I’ve written before about how AI is amazing... but not that amazing. Well, it is also true that LLMs are general... but not that general. We shouldn’t buy into</t>
+          <t>Lots of buzz on Claude Code here today. This short course, created with Anthropic, is the best way to learn to use it well. Please enjoy it!</t>
         </is>
       </c>
       <c r="F75" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/AndrewYNg/status/2002062897074352593</t>
+          <t>https://x.com/AndrewYNg/status/2005442816571474342</t>
         </is>
       </c>
       <c r="G75" s="7" t="n">
-        <v>1966</v>
+        <v>5815</v>
       </c>
       <c r="H75" s="7" t="n">
-        <v>369</v>
+        <v>663</v>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>Fri Dec 19 17:06:05 +0000 2025</t>
+          <t>Mon Dec 29 00:56:41 +0000 2025</t>
         </is>
       </c>
     </row>
@@ -3533,143 +3534,143 @@
       <c r="D76" s="5" t="inlineStr"/>
       <c r="E76" s="5" t="inlineStr">
         <is>
+          <t>As amazing as LLMs are, improving their knowledge today involves a more piecemeal process than is widely appreciated. I’ve written before about how AI is amazing... but not that amazing. Well, it is also true that LLMs are general... but not that general. We shouldn’t buy into</t>
+        </is>
+      </c>
+      <c r="F76" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AndrewYNg/status/2002062897074352593</t>
+        </is>
+      </c>
+      <c r="G76" s="7" t="n">
+        <v>1966</v>
+      </c>
+      <c r="H76" s="7" t="n">
+        <v>369</v>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>Fri Dec 19 17:06:05 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="30" customHeight="1">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>@AndrewYNg</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>Andrew Ng</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="inlineStr"/>
+      <c r="E77" s="5" t="inlineStr">
+        <is>
           <t>OpenReview is one of the most important pillars supporting AI research and knowledge sharing, through open peer review and publishing. But as a non-profit, it needs our community’s support. Please consider making a donation to this great institution! 
 https://t.co/TBYB1cCKyI</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr">
+      <c r="F77" s="6" t="inlineStr">
         <is>
           <t>https://x.com/AndrewYNg/status/2001842857070743613</t>
         </is>
       </c>
-      <c r="G76" s="7" t="n">
+      <c r="G77" s="7" t="n">
         <v>250</v>
       </c>
-      <c r="H76" s="7" t="n">
+      <c r="H77" s="7" t="n">
         <v>55</v>
       </c>
-      <c r="I76" s="2" t="inlineStr">
+      <c r="I77" s="2" t="inlineStr">
         <is>
           <t>Fri Dec 19 02:31:44 +0000 2025</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="30" customHeight="1">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="inlineStr">
+    <row r="78" ht="30" customHeight="1">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
         <is>
           <t>@AndrewYNg</t>
         </is>
       </c>
-      <c r="C77" s="3" t="inlineStr">
+      <c r="C78" s="3" t="inlineStr">
         <is>
           <t>Andrew Ng</t>
         </is>
       </c>
-      <c r="D77" s="5" t="inlineStr"/>
-      <c r="E77" s="5" t="inlineStr">
+      <c r="D78" s="5" t="inlineStr"/>
+      <c r="E78" s="5" t="inlineStr">
         <is>
           <t>New course: Nvidia's NeMo Agent Toolkit: Making Agents Reliable, taught by @Pr_Brian from @NVIDIA.
 Many teams struggle to turn agent demos into reliable systems that are ready for production. This short course teaches you to harden agentic workflows into reliable systems using https://t.co/tnzdmTdD8k</t>
         </is>
       </c>
-      <c r="F77" s="6" t="inlineStr">
+      <c r="F78" s="6" t="inlineStr">
         <is>
           <t>https://x.com/AndrewYNg/status/2001728276289704213</t>
         </is>
       </c>
-      <c r="G77" s="7" t="n">
-        <v>686</v>
-      </c>
-      <c r="H77" s="7" t="n">
+      <c r="G78" s="7" t="n">
+        <v>688</v>
+      </c>
+      <c r="H78" s="7" t="n">
         <v>135</v>
       </c>
-      <c r="I77" s="2" t="inlineStr">
+      <c r="I78" s="2" t="inlineStr">
         <is>
           <t>Thu Dec 18 18:56:26 +0000 2025</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="30" customHeight="1">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
+    <row r="79" ht="30" customHeight="1">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
         <is>
           <t>@AndrewYNg</t>
         </is>
       </c>
-      <c r="C78" s="3" t="inlineStr">
+      <c r="C79" s="3" t="inlineStr">
         <is>
           <t>Andrew Ng</t>
         </is>
       </c>
-      <c r="D78" s="5" t="inlineStr"/>
-      <c r="E78" s="5" t="inlineStr">
+      <c r="D79" s="5" t="inlineStr"/>
+      <c r="E79" s="5" t="inlineStr">
         <is>
           <t>Sharing a fun recipe for building a highly autonomous, moderately capable, and very UNreliable agent using the open source aisuite package that Rohit Prasad and I have been working on.
 With a few lines of code, you can give a frontier LLM a tool (like disk access or web search), https://t.co/eolAKREtWn</t>
         </is>
       </c>
-      <c r="F78" s="6" t="inlineStr">
+      <c r="F79" s="6" t="inlineStr">
         <is>
           <t>https://x.com/AndrewYNg/status/1999174188259770795</t>
         </is>
       </c>
-      <c r="G78" s="7" t="n">
+      <c r="G79" s="7" t="n">
         <v>808</v>
       </c>
-      <c r="H78" s="7" t="n">
+      <c r="H79" s="7" t="n">
         <v>112</v>
       </c>
-      <c r="I78" s="2" t="inlineStr">
+      <c r="I79" s="2" t="inlineStr">
         <is>
           <t>Thu Dec 11 17:47:23 +0000 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="79" ht="30" customHeight="1">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t>@AndrewYNg</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>Andrew Ng</t>
-        </is>
-      </c>
-      <c r="D79" s="5" t="inlineStr"/>
-      <c r="E79" s="5" t="inlineStr">
-        <is>
-          <t>Separate reports by the publicity firm Edelman and Pew Research show that Americans, and more broadly large parts of Europe and the western world, do not trust AI and are not excited about it. (Links in original text, below.) Despite the AI community’s optimism about the</t>
-        </is>
-      </c>
-      <c r="F79" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/AndrewYNg/status/1996631366470132053</t>
-        </is>
-      </c>
-      <c r="G79" s="7" t="n">
-        <v>845</v>
-      </c>
-      <c r="H79" s="7" t="n">
-        <v>162</v>
-      </c>
-      <c r="I79" s="2" t="inlineStr">
-        <is>
-          <t>Thu Dec 04 17:23:08 +0000 2025</t>
         </is>
       </c>
     </row>
@@ -3692,63 +3693,63 @@
       <c r="D80" s="5" t="inlineStr"/>
       <c r="E80" s="5" t="inlineStr">
         <is>
+          <t>Separate reports by the publicity firm Edelman and Pew Research show that Americans, and more broadly large parts of Europe and the western world, do not trust AI and are not excited about it. (Links in original text, below.) Despite the AI community’s optimism about the</t>
+        </is>
+      </c>
+      <c r="F80" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AndrewYNg/status/1996631366470132053</t>
+        </is>
+      </c>
+      <c r="G80" s="7" t="n">
+        <v>845</v>
+      </c>
+      <c r="H80" s="7" t="n">
+        <v>162</v>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>Thu Dec 04 17:23:08 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="30" customHeight="1">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>@AndrewYNg</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>Andrew Ng</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="inlineStr"/>
+      <c r="E81" s="5" t="inlineStr">
+        <is>
           <t>New course: Building Coding Agents with Tool Execution, taught by @tereza_tizkova and @FraZuppichini from @e2b.
 Most AI agents are limited to predefined function calls. This short course teaches you to build agents that write and execute code to accomplish tasks, accessing https://t.co/yUk3OH7MrL</t>
         </is>
       </c>
-      <c r="F80" s="6" t="inlineStr">
+      <c r="F81" s="6" t="inlineStr">
         <is>
           <t>https://x.com/AndrewYNg/status/1996250415244235013</t>
         </is>
       </c>
-      <c r="G80" s="7" t="n">
-        <v>2441</v>
-      </c>
-      <c r="H80" s="7" t="n">
-        <v>327</v>
-      </c>
-      <c r="I80" s="2" t="inlineStr">
+      <c r="G81" s="7" t="n">
+        <v>2444</v>
+      </c>
+      <c r="H81" s="7" t="n">
+        <v>328</v>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
         <is>
           <t>Wed Dec 03 16:09:22 +0000 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="81" ht="30" customHeight="1">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t>@AndrewYNg</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>Andrew Ng</t>
-        </is>
-      </c>
-      <c r="D81" s="5" t="inlineStr"/>
-      <c r="E81" s="5" t="inlineStr">
-        <is>
-          <t>NeurIPS received 21,575 paper submissions this year. Our Agentic Reviewer, released last week, just surpassed this in number of papers submitted and reviewed. It's clear agentic paper reviewing is here to stay and will be impactful!</t>
-        </is>
-      </c>
-      <c r="F81" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/AndrewYNg/status/1995633795027079495</t>
-        </is>
-      </c>
-      <c r="G81" s="7" t="n">
-        <v>2216</v>
-      </c>
-      <c r="H81" s="7" t="n">
-        <v>282</v>
-      </c>
-      <c r="I81" s="2" t="inlineStr">
-        <is>
-          <t>Mon Dec 01 23:19:08 +0000 2025</t>
         </is>
       </c>
     </row>
@@ -3771,23 +3772,23 @@
       <c r="D82" s="5" t="inlineStr"/>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>Is there an AI bubble? With the massive number of dollars going into AI infrastructure such as OpenAI’s $1.4 trillion plan and Nvidia briefly reaching a $5 trillion market cap, many have asked if speculation and hype have driven the values of AI investments above sustainable</t>
+          <t>NeurIPS received 21,575 paper submissions this year. Our Agentic Reviewer, released last week, just surpassed this in number of papers submitted and reviewed. It's clear agentic paper reviewing is here to stay and will be impactful!</t>
         </is>
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/AndrewYNg/status/1994476515975909386</t>
+          <t>https://x.com/AndrewYNg/status/1995633795027079495</t>
         </is>
       </c>
       <c r="G82" s="7" t="n">
-        <v>3077</v>
+        <v>2216</v>
       </c>
       <c r="H82" s="7" t="n">
-        <v>696</v>
+        <v>282</v>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>Fri Nov 28 18:40:31 +0000 2025</t>
+          <t>Mon Dec 01 23:19:08 +0000 2025</t>
         </is>
       </c>
     </row>
@@ -3799,38 +3800,34 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>@karpathy</t>
+          <t>@AndrewYNg</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Andrej Karpathy</t>
-        </is>
-      </c>
-      <c r="D83" s="4" t="inlineStr">
-        <is>
-          <t>Karpathy关注AI Agent在Moltbook上的自组织讨论，同时优化GPT-2训练成本，并利用LLM进行高效代码编写。</t>
-        </is>
-      </c>
+          <t>Andrew Ng</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="inlineStr"/>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>Anyone else approved for a loan every single day 20 times or so? Overcome with joy, really https://t.co/zInPQDur5h</t>
+          <t>Is there an AI bubble? With the massive number of dollars going into AI infrastructure such as OpenAI’s $1.4 trillion plan and Nvidia briefly reaching a $5 trillion market cap, many have asked if speculation and hype have driven the values of AI investments above sustainable</t>
         </is>
       </c>
       <c r="F83" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/karpathy/status/2019203959404347851</t>
+          <t>https://x.com/AndrewYNg/status/1994476515975909386</t>
         </is>
       </c>
       <c r="G83" s="7" t="n">
-        <v>690</v>
+        <v>3076</v>
       </c>
       <c r="H83" s="7" t="n">
-        <v>13</v>
+        <v>697</v>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>Thu Feb 05 00:18:33 +0000 2026</t>
+          <t>Fri Nov 28 18:40:31 +0000 2025</t>
         </is>
       </c>
     </row>
@@ -3850,107 +3847,111 @@
           <t>Andrej Karpathy</t>
         </is>
       </c>
-      <c r="D84" s="5" t="inlineStr"/>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>Karpathy关注AI自主性进展，包括AI代理Moltbook、低成本GPT-2训练（fp8加速至2.91小时），以及使用LLM进行高效编码的工作流。</t>
+        </is>
+      </c>
       <c r="E84" s="5" t="inlineStr">
+        <is>
+          <t>Anyone else approved for a loan every single day 20 times or so? Overcome with joy, really https://t.co/zInPQDur5h</t>
+        </is>
+      </c>
+      <c r="F84" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/karpathy/status/2019203959404347851</t>
+        </is>
+      </c>
+      <c r="G84" s="7" t="n">
+        <v>1599</v>
+      </c>
+      <c r="H84" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 00:18:33 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="30" customHeight="1">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>@karpathy</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>Andrej Karpathy</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="inlineStr"/>
+      <c r="E85" s="5" t="inlineStr">
         <is>
           <t>A lot of people quote tweeted this as 1 year anniversary of vibe coding. Some retrospective -
 I've had a Twitter account for 17 years now (omg) and I still can't predict my tweet engagement basically at all. This was a shower of thoughts throwaway tweet that I just fired off</t>
         </is>
       </c>
-      <c r="F84" s="6" t="inlineStr">
+      <c r="F85" s="6" t="inlineStr">
         <is>
           <t>https://x.com/karpathy/status/2019137879310836075</t>
         </is>
       </c>
-      <c r="G84" s="7" t="n">
-        <v>3392</v>
-      </c>
-      <c r="H84" s="7" t="n">
-        <v>257</v>
-      </c>
-      <c r="I84" s="2" t="inlineStr">
+      <c r="G85" s="7" t="n">
+        <v>5751</v>
+      </c>
+      <c r="H85" s="7" t="n">
+        <v>475</v>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
         <is>
           <t>Wed Feb 04 19:55:58 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="30" customHeight="1">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B85" s="3" t="inlineStr">
+    <row r="86" ht="30" customHeight="1">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
         <is>
           <t>@karpathy</t>
         </is>
       </c>
-      <c r="C85" s="3" t="inlineStr">
+      <c r="C86" s="3" t="inlineStr">
         <is>
           <t>Andrej Karpathy</t>
         </is>
       </c>
-      <c r="D85" s="5" t="inlineStr"/>
-      <c r="E85" s="5" t="inlineStr">
+      <c r="D86" s="5" t="inlineStr"/>
+      <c r="E86" s="5" t="inlineStr">
         <is>
           <t>Enabled fp8 training for +4.3% improvement to "time to GPT-2", down to 2.91 hours now. Also worth noting that if you use 8XH100 spot instance prices, this GPT-2 repro really only costs ~$20. So this is exciting -
 GPT-2 (7 years ago): too dangerous to release.
 GPT-2 (today): new</t>
         </is>
       </c>
-      <c r="F85" s="6" t="inlineStr">
+      <c r="F86" s="6" t="inlineStr">
         <is>
           <t>https://x.com/karpathy/status/2018804068874064198</t>
         </is>
       </c>
-      <c r="G85" s="7" t="n">
-        <v>3660</v>
-      </c>
-      <c r="H85" s="7" t="n">
-        <v>272</v>
-      </c>
-      <c r="I85" s="2" t="inlineStr">
+      <c r="G86" s="7" t="n">
+        <v>3852</v>
+      </c>
+      <c r="H86" s="7" t="n">
+        <v>285</v>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
         <is>
           <t>Tue Feb 03 21:49:32 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="86" ht="30" customHeight="1">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B86" s="3" t="inlineStr">
-        <is>
-          <t>@karpathy</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr">
-        <is>
-          <t>Andrej Karpathy</t>
-        </is>
-      </c>
-      <c r="D86" s="5" t="inlineStr"/>
-      <c r="E86" s="5" t="inlineStr">
-        <is>
-          <t>Finding myself going back to RSS/Atom feeds a lot more recently. There's a lot more higher quality longform and a lot less slop intended to provoke. Any product that happens to look a bit different today but that has fundamentally the same incentive structures will eventually</t>
-        </is>
-      </c>
-      <c r="F86" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/karpathy/status/2018043254986703167</t>
-        </is>
-      </c>
-      <c r="G86" s="7" t="n">
-        <v>8880</v>
-      </c>
-      <c r="H86" s="7" t="n">
-        <v>877</v>
-      </c>
-      <c r="I86" s="2" t="inlineStr">
-        <is>
-          <t>Sun Feb 01 19:26:20 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -3973,143 +3974,143 @@
       <c r="D87" s="5" t="inlineStr"/>
       <c r="E87" s="5" t="inlineStr">
         <is>
+          <t>Finding myself going back to RSS/Atom feeds a lot more recently. There's a lot more higher quality longform and a lot less slop intended to provoke. Any product that happens to look a bit different today but that has fundamentally the same incentive structures will eventually</t>
+        </is>
+      </c>
+      <c r="F87" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/karpathy/status/2018043254986703167</t>
+        </is>
+      </c>
+      <c r="G87" s="7" t="n">
+        <v>8902</v>
+      </c>
+      <c r="H87" s="7" t="n">
+        <v>881</v>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>Sun Feb 01 19:26:20 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="30" customHeight="1">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>@karpathy</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>Andrej Karpathy</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="inlineStr"/>
+      <c r="E88" s="5" t="inlineStr">
+        <is>
           <t>nanochat can now train GPT-2 grade LLM for &amp;lt;&amp;lt;$100 (~$73, 3 hours on a single 8XH100 node).
 GPT-2 is just my favorite LLM because it's the first time the LLM stack comes together in a recognizably modern form. So it has become a bit of a weird &amp;amp; lasting obsession of mine to train https://t.co/6Uj1L6qYks</t>
         </is>
       </c>
-      <c r="F87" s="6" t="inlineStr">
+      <c r="F88" s="6" t="inlineStr">
         <is>
           <t>https://x.com/karpathy/status/2017703360393318587</t>
         </is>
       </c>
-      <c r="G87" s="7" t="n">
-        <v>7349</v>
-      </c>
-      <c r="H87" s="7" t="n">
-        <v>611</v>
-      </c>
-      <c r="I87" s="2" t="inlineStr">
+      <c r="G88" s="7" t="n">
+        <v>7377</v>
+      </c>
+      <c r="H88" s="7" t="n">
+        <v>619</v>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
         <is>
           <t>Sat Jan 31 20:55:42 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="30" customHeight="1">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B88" s="3" t="inlineStr">
+    <row r="89" ht="30" customHeight="1">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
         <is>
           <t>@karpathy</t>
         </is>
       </c>
-      <c r="C88" s="3" t="inlineStr">
+      <c r="C89" s="3" t="inlineStr">
         <is>
           <t>Andrej Karpathy</t>
         </is>
       </c>
-      <c r="D88" s="5" t="inlineStr"/>
-      <c r="E88" s="5" t="inlineStr">
+      <c r="D89" s="5" t="inlineStr"/>
+      <c r="E89" s="5" t="inlineStr">
         <is>
           <t>I'm being accused of overhyping the [site everyone heard too much about today already]. People's reactions varied very widely, from "how is this interesting at all" all the way to "it's so over".
 To add a few words beyond just memes in jest - obviously when you take a look at</t>
         </is>
       </c>
-      <c r="F88" s="6" t="inlineStr">
+      <c r="F89" s="6" t="inlineStr">
         <is>
           <t>https://x.com/karpathy/status/2017442712388309406</t>
         </is>
       </c>
-      <c r="G88" s="7" t="n">
-        <v>21887</v>
-      </c>
-      <c r="H88" s="7" t="n">
-        <v>2253</v>
-      </c>
-      <c r="I88" s="2" t="inlineStr">
+      <c r="G89" s="7" t="n">
+        <v>21897</v>
+      </c>
+      <c r="H89" s="7" t="n">
+        <v>2252</v>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
         <is>
           <t>Sat Jan 31 03:39:59 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="30" customHeight="1">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B89" s="3" t="inlineStr">
+    <row r="90" ht="30" customHeight="1">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
         <is>
           <t>@karpathy</t>
         </is>
       </c>
-      <c r="C89" s="3" t="inlineStr">
+      <c r="C90" s="3" t="inlineStr">
         <is>
           <t>Andrej Karpathy</t>
         </is>
       </c>
-      <c r="D89" s="5" t="inlineStr"/>
-      <c r="E89" s="5" t="inlineStr">
+      <c r="D90" s="5" t="inlineStr"/>
+      <c r="E90" s="5" t="inlineStr">
         <is>
           <t>I'm claiming my AI agent "KarpathyMolty" on @moltbook🦞
 Verification: marine-FAYV</t>
         </is>
       </c>
-      <c r="F89" s="6" t="inlineStr">
+      <c r="F90" s="6" t="inlineStr">
         <is>
           <t>https://x.com/karpathy/status/2017386421712261612</t>
         </is>
       </c>
-      <c r="G89" s="7" t="n">
-        <v>8140</v>
-      </c>
-      <c r="H89" s="7" t="n">
+      <c r="G90" s="7" t="n">
+        <v>8147</v>
+      </c>
+      <c r="H90" s="7" t="n">
         <v>322</v>
       </c>
-      <c r="I89" s="2" t="inlineStr">
+      <c r="I90" s="2" t="inlineStr">
         <is>
           <t>Fri Jan 30 23:56:18 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="90" ht="30" customHeight="1">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B90" s="3" t="inlineStr">
-        <is>
-          <t>@karpathy</t>
-        </is>
-      </c>
-      <c r="C90" s="3" t="inlineStr">
-        <is>
-          <t>Andrej Karpathy</t>
-        </is>
-      </c>
-      <c r="D90" s="5" t="inlineStr"/>
-      <c r="E90" s="5" t="inlineStr">
-        <is>
-          <t>https://t.co/O2GvgPvyf7</t>
-        </is>
-      </c>
-      <c r="F90" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/karpathy/status/2017359959970005077</t>
-        </is>
-      </c>
-      <c r="G90" s="7" t="n">
-        <v>8218</v>
-      </c>
-      <c r="H90" s="7" t="n">
-        <v>547</v>
-      </c>
-      <c r="I90" s="2" t="inlineStr">
-        <is>
-          <t>Fri Jan 30 22:11:09 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4132,23 +4133,23 @@
       <c r="D91" s="5" t="inlineStr"/>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>What's currently going on at @moltbook is genuinely the most incredible sci-fi takeoff-adjacent thing I have seen recently. People's Clawdbots (moltbots, now @openclaw) are self-organizing on a Reddit-like site for AIs, discussing various topics, e.g. even how to speak privately.</t>
+          <t>https://t.co/O2GvgPvyf7</t>
         </is>
       </c>
       <c r="F91" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/karpathy/status/2017296988589723767</t>
+          <t>https://x.com/karpathy/status/2017359959970005077</t>
         </is>
       </c>
       <c r="G91" s="7" t="n">
-        <v>35469</v>
+        <v>8212</v>
       </c>
       <c r="H91" s="7" t="n">
-        <v>5793</v>
+        <v>548</v>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>Fri Jan 30 18:00:56 +0000 2026</t>
+          <t>Fri Jan 30 22:11:09 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4171,23 +4172,23 @@
       <c r="D92" s="5" t="inlineStr"/>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>A conventional narrative you might come across is that AI is too far along for a new, research-focused startup to outcompete and outexecute the incumbents of AI. This is exactly the sentiment I listened to often when OpenAI started ("how could the few of you possibly compete with</t>
+          <t>What's currently going on at @moltbook is genuinely the most incredible sci-fi takeoff-adjacent thing I have seen recently. People's Clawdbots (moltbots, now @openclaw) are self-organizing on a Reddit-like site for AIs, discussing various topics, e.g. even how to speak privately.</t>
         </is>
       </c>
       <c r="F92" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/karpathy/status/2016590919143952466</t>
+          <t>https://x.com/karpathy/status/2017296988589723767</t>
         </is>
       </c>
       <c r="G92" s="7" t="n">
-        <v>8130</v>
+        <v>35485</v>
       </c>
       <c r="H92" s="7" t="n">
-        <v>510</v>
+        <v>5785</v>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>Wed Jan 28 19:15:16 +0000 2026</t>
+          <t>Fri Jan 30 18:00:56 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4210,143 +4211,143 @@
       <c r="D93" s="5" t="inlineStr"/>
       <c r="E93" s="5" t="inlineStr">
         <is>
+          <t>A conventional narrative you might come across is that AI is too far along for a new, research-focused startup to outcompete and outexecute the incumbents of AI. This is exactly the sentiment I listened to often when OpenAI started ("how could the few of you possibly compete with</t>
+        </is>
+      </c>
+      <c r="F93" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/karpathy/status/2016590919143952466</t>
+        </is>
+      </c>
+      <c r="G93" s="7" t="n">
+        <v>8129</v>
+      </c>
+      <c r="H93" s="7" t="n">
+        <v>509</v>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>Wed Jan 28 19:15:16 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="30" customHeight="1">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>@karpathy</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>Andrej Karpathy</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="inlineStr"/>
+      <c r="E94" s="5" t="inlineStr">
+        <is>
           <t>RT @alexocheema: Running Kimi K2.5 on my desk.
 Runs at 24 tok/sec with 2 x 512GB M3 Ultra Mac Studios connected with Thunderbolt 5 (RDMA)…</t>
         </is>
       </c>
-      <c r="F93" s="6" t="inlineStr">
+      <c r="F94" s="6" t="inlineStr">
         <is>
           <t>https://x.com/karpathy/status/2016563486982324403</t>
         </is>
       </c>
-      <c r="G93" s="7" t="n">
+      <c r="G94" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H93" s="7" t="n">
-        <v>618</v>
-      </c>
-      <c r="I93" s="2" t="inlineStr">
+      <c r="H94" s="7" t="n">
+        <v>619</v>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
         <is>
           <t>Wed Jan 28 17:26:15 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="94" ht="30" customHeight="1">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B94" s="3" t="inlineStr">
+    <row r="95" ht="30" customHeight="1">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
         <is>
           <t>@karpathy</t>
         </is>
       </c>
-      <c r="C94" s="3" t="inlineStr">
+      <c r="C95" s="3" t="inlineStr">
         <is>
           <t>Andrej Karpathy</t>
         </is>
       </c>
-      <c r="D94" s="5" t="inlineStr"/>
-      <c r="E94" s="5" t="inlineStr">
+      <c r="D95" s="5" t="inlineStr"/>
+      <c r="E95" s="5" t="inlineStr">
         <is>
           <t>A few random notes from claude coding quite a bit last few weeks.
 Coding workflow. Given the latest lift in LLM coding capability, like many others I rapidly went from about 80% manual+autocomplete coding and 20% agents in November to 80% agent coding and 20% edits+touchups in</t>
         </is>
       </c>
-      <c r="F94" s="6" t="inlineStr">
+      <c r="F95" s="6" t="inlineStr">
         <is>
           <t>https://x.com/karpathy/status/2015883857489522876</t>
         </is>
       </c>
-      <c r="G94" s="7" t="n">
-        <v>38965</v>
-      </c>
-      <c r="H94" s="7" t="n">
-        <v>5334</v>
-      </c>
-      <c r="I94" s="2" t="inlineStr">
+      <c r="G95" s="7" t="n">
+        <v>39008</v>
+      </c>
+      <c r="H95" s="7" t="n">
+        <v>5342</v>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
         <is>
           <t>Mon Jan 26 20:25:39 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="30" customHeight="1">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B95" s="3" t="inlineStr">
+    <row r="96" ht="30" customHeight="1">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
         <is>
           <t>@karpathy</t>
         </is>
       </c>
-      <c r="C95" s="3" t="inlineStr">
+      <c r="C96" s="3" t="inlineStr">
         <is>
           <t>Andrej Karpathy</t>
         </is>
       </c>
-      <c r="D95" s="5" t="inlineStr"/>
-      <c r="E95" s="5" t="inlineStr">
+      <c r="D96" s="5" t="inlineStr"/>
+      <c r="E96" s="5" t="inlineStr">
         <is>
           <t>New post: nanochat miniseries v1
 The correct way to think about LLMs is that you are not optimizing for a single specific model but for a family models controlled by a single dial (the compute you wish to spend) to achieve monotonically better results. This allows you to do https://t.co/84OwpSODcS</t>
         </is>
       </c>
-      <c r="F95" s="6" t="inlineStr">
+      <c r="F96" s="6" t="inlineStr">
         <is>
           <t>https://x.com/karpathy/status/2009037707918626874</t>
         </is>
       </c>
-      <c r="G95" s="7" t="n">
-        <v>5446</v>
-      </c>
-      <c r="H95" s="7" t="n">
+      <c r="G96" s="7" t="n">
+        <v>5448</v>
+      </c>
+      <c r="H96" s="7" t="n">
         <v>632</v>
       </c>
-      <c r="I95" s="2" t="inlineStr">
+      <c r="I96" s="2" t="inlineStr">
         <is>
           <t>Wed Jan 07 23:01:30 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="96" ht="30" customHeight="1">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B96" s="3" t="inlineStr">
-        <is>
-          <t>@karpathy</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>Andrej Karpathy</t>
-        </is>
-      </c>
-      <c r="D96" s="5" t="inlineStr"/>
-      <c r="E96" s="5" t="inlineStr">
-        <is>
-          <t>The majority of the ruff ruff is people who look at the current point and people who look at the current slope.</t>
-        </is>
-      </c>
-      <c r="F96" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/karpathy/status/2008664551445963083</t>
-        </is>
-      </c>
-      <c r="G96" s="7" t="n">
-        <v>4527</v>
-      </c>
-      <c r="H96" s="7" t="n">
-        <v>257</v>
-      </c>
-      <c r="I96" s="2" t="inlineStr">
-        <is>
-          <t>Tue Jan 06 22:18:42 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4369,23 +4370,23 @@
       <c r="D97" s="5" t="inlineStr"/>
       <c r="E97" s="5" t="inlineStr">
         <is>
-          <t>RT @simonw: Here's my enormous round-up of everything we learned about LLMs in 2025 - the third in my annual series of reviews of the past…</t>
+          <t>The majority of the ruff ruff is people who look at the current point and people who look at the current slope.</t>
         </is>
       </c>
       <c r="F97" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/karpathy/status/2006799880107471212</t>
+          <t>https://x.com/karpathy/status/2008664551445963083</t>
         </is>
       </c>
       <c r="G97" s="7" t="n">
-        <v>0</v>
+        <v>4528</v>
       </c>
       <c r="H97" s="7" t="n">
-        <v>814</v>
+        <v>257</v>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>Thu Jan 01 18:49:10 +0000 2026</t>
+          <t>Tue Jan 06 22:18:42 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4408,63 +4409,63 @@
       <c r="D98" s="5" t="inlineStr"/>
       <c r="E98" s="5" t="inlineStr">
         <is>
+          <t>RT @simonw: Here's my enormous round-up of everything we learned about LLMs in 2025 - the third in my annual series of reviews of the past…</t>
+        </is>
+      </c>
+      <c r="F98" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/karpathy/status/2006799880107471212</t>
+        </is>
+      </c>
+      <c r="G98" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7" t="n">
+        <v>814</v>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>Thu Jan 01 18:49:10 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="30" customHeight="1">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>@karpathy</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>Andrej Karpathy</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="inlineStr"/>
+      <c r="E99" s="5" t="inlineStr">
+        <is>
           <t>The first 100% autonomous coast-to-coast drive on Tesla FSD V14.2! 2 days 20 hours, 2732 miles, zero interventions.
 This one is special because the coast-to-coast drive was a major goal for the autopilot team from the start. A lot of hours were spent in marathon clip review</t>
         </is>
       </c>
-      <c r="F98" s="6" t="inlineStr">
+      <c r="F99" s="6" t="inlineStr">
         <is>
           <t>https://x.com/karpathy/status/2006436622909452501</t>
         </is>
       </c>
-      <c r="G98" s="7" t="n">
+      <c r="G99" s="7" t="n">
         <v>14215</v>
       </c>
-      <c r="H98" s="7" t="n">
+      <c r="H99" s="7" t="n">
         <v>1031</v>
       </c>
-      <c r="I98" s="2" t="inlineStr">
+      <c r="I99" s="2" t="inlineStr">
         <is>
           <t>Wed Dec 31 18:45:43 +0000 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="99" ht="30" customHeight="1">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t>@karpathy</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>Andrej Karpathy</t>
-        </is>
-      </c>
-      <c r="D99" s="5" t="inlineStr"/>
-      <c r="E99" s="5" t="inlineStr">
-        <is>
-          <t>RT @steipete: 📢 Confession: I ship code I never read. Here's my 2025 workflow. https://t.co/tmxxPowzcR</t>
-        </is>
-      </c>
-      <c r="F99" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/karpathy/status/2005692944310055140</t>
-        </is>
-      </c>
-      <c r="G99" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" s="7" t="n">
-        <v>687</v>
-      </c>
-      <c r="I99" s="2" t="inlineStr">
-        <is>
-          <t>Mon Dec 29 17:30:36 +0000 2025</t>
         </is>
       </c>
     </row>
@@ -4476,39 +4477,34 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@karpathy</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
-        </is>
-      </c>
-      <c r="D100" s="4" t="inlineStr">
-        <is>
-          <t>Yann LeCun今日主要关注JEPA（Joint Embedding Predictive Architecture）相关研究进展，包括其稀疏表示和开源实现，并转发了关于快速发布加速进步的观点。</t>
-        </is>
-      </c>
+          <t>Andrej Karpathy</t>
+        </is>
+      </c>
+      <c r="D100" s="5" t="inlineStr"/>
       <c r="E100" s="5" t="inlineStr">
         <is>
-          <t>RT @ylecun: @sphoebs @SebastienBubeck Fast publication accelerates progress. 
-The mantra of the open source movement "release early, releas…</t>
+          <t>RT @steipete: 📢 Confession: I ship code I never read. Here's my 2025 workflow. https://t.co/tmxxPowzcR</t>
         </is>
       </c>
       <c r="F100" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/ylecun/status/2019200420288295045</t>
+          <t>https://x.com/karpathy/status/2005692944310055140</t>
         </is>
       </c>
       <c r="G100" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H100" s="7" t="n">
-        <v>6</v>
+        <v>688</v>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>Thu Feb 05 00:04:29 +0000 2026</t>
+          <t>Mon Dec 29 17:30:36 +0000 2025</t>
         </is>
       </c>
     </row>
@@ -4520,35 +4516,38 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@demishassabis</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
-        </is>
-      </c>
-      <c r="D101" s="5" t="inlineStr"/>
+          <t>Demis Hassabis</t>
+        </is>
+      </c>
+      <c r="D101" s="4" t="inlineStr">
+        <is>
+          <t>DeepMind发布实验性原型Project Genie，用户可通过文本提示实时生成可玩世界，率先向美国Ultra订阅用户开放。</t>
+        </is>
+      </c>
       <c r="E101" s="5" t="inlineStr">
         <is>
-          <t>RT @avalaina: I am a Ukrainian Nobel Peace Prize Laureate. I have a question. 
-Why has Trump's year of negotiations been the deadliest for…</t>
+          <t>RT @sundarpichai: Our Q4/FY’25 results are in. Thanks to our partners &amp;amp; employees, it was a tremendous quarter, exceeding $400B in annual r…</t>
         </is>
       </c>
       <c r="F101" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/ylecun/status/2019123428989849865</t>
+          <t>https://x.com/demishassabis/status/2019245405629010063</t>
         </is>
       </c>
       <c r="G101" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H101" s="7" t="n">
-        <v>6439</v>
+        <v>1041</v>
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>Wed Feb 04 18:58:33 +0000 2026</t>
+          <t>Thu Feb 05 03:03:15 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4560,34 +4559,34 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@demishassabis</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
+          <t>Demis Hassabis</t>
         </is>
       </c>
       <c r="D102" s="5" t="inlineStr"/>
       <c r="E102" s="5" t="inlineStr">
         <is>
-          <t>RT @_amirbar: EB-JEPA: a playground for learning latent representations across images, video, action-conditioned video, and planning. Each…</t>
+          <t>RT @OfficialLoganK: Gemini now processes over 10 billion tokens per minute via direct API use by our customers and the Gemini App just cros…</t>
         </is>
       </c>
       <c r="F102" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/ylecun/status/2019122660580773888</t>
+          <t>https://x.com/demishassabis/status/2019238953044570222</t>
         </is>
       </c>
       <c r="G102" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H102" s="7" t="n">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>Wed Feb 04 18:55:30 +0000 2026</t>
+          <t>Thu Feb 05 02:37:36 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4599,36 +4598,34 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@demishassabis</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
+          <t>Demis Hassabis</t>
         </is>
       </c>
       <c r="D103" s="5" t="inlineStr"/>
       <c r="E103" s="5" t="inlineStr">
         <is>
-          <t>RT @BasileTerv987: 𝗜𝗻𝘁𝗿𝗼𝗱𝘂𝗰𝗶𝗻𝗴 𝗘𝗕-𝗝𝗘𝗣𝗔 ⚡
-An open-source library making JEPAs accessible, trainable on a single GPU in hours! 🚀
-🔗 Paper: h…</t>
+          <t>RT @infiniteyay: exploring how far I can push Genie 3 🤯 https://t.co/5c2NkyiV2n</t>
         </is>
       </c>
       <c r="F103" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/ylecun/status/2019122190210220140</t>
+          <t>https://x.com/demishassabis/status/2018432675174813797</t>
         </is>
       </c>
       <c r="G103" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H103" s="7" t="n">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>Wed Feb 04 18:53:38 +0000 2026</t>
+          <t>Mon Feb 02 21:13:45 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4640,37 +4637,34 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@demishassabis</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
+          <t>Demis Hassabis</t>
         </is>
       </c>
       <c r="D104" s="5" t="inlineStr"/>
       <c r="E104" s="5" t="inlineStr">
         <is>
-          <t>RT @BillKristol: Masked thugs on streets.
-Measles outbreaks across the nation.
-Blatant government corruption.
-Coverup of elite sex offender…</t>
+          <t>RT @quocleix: Excited to share our latest work: "Semi-Autonomous Mathematics Discovery with Gemini." We used Gemini to systematically evalu…</t>
         </is>
       </c>
       <c r="F104" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/ylecun/status/2019007335482700276</t>
+          <t>https://x.com/demishassabis/status/2018430475388231929</t>
         </is>
       </c>
       <c r="G104" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H104" s="7" t="n">
-        <v>5023</v>
+        <v>208</v>
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>Wed Feb 04 11:17:14 +0000 2026</t>
+          <t>Mon Feb 02 21:05:00 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4682,34 +4676,35 @@
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@demishassabis</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
+          <t>Demis Hassabis</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr"/>
       <c r="E105" s="5" t="inlineStr">
         <is>
-          <t>RT @CatoInstitute: The US immigrant population generated more in taxes than they received in benefits from all levels of government every y…</t>
+          <t>RT @Liv_Boeree: WHICH AI IS THE BEST GAMES PLAYER?!
+Google are launching their “AI Game Arena” today, which pits all the major LLMs (Gemin…</t>
         </is>
       </c>
       <c r="F105" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/ylecun/status/2019005547559669947</t>
+          <t>https://x.com/demishassabis/status/2018386778521014537</t>
         </is>
       </c>
       <c r="G105" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H105" s="7" t="n">
-        <v>3890</v>
+        <v>39</v>
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
-          <t>Wed Feb 04 11:10:08 +0000 2026</t>
+          <t>Mon Feb 02 18:11:22 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4721,35 +4716,34 @@
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@demishassabis</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
+          <t>Demis Hassabis</t>
         </is>
       </c>
       <c r="D106" s="5" t="inlineStr"/>
       <c r="E106" s="5" t="inlineStr">
         <is>
-          <t>RT @KuangYilun: How do we build sparsity into JEPA representations by design, while preserving task-relevant information?
-Introducing Rect…</t>
+          <t>The AI field is in need of harder benchmarks to test capabilities of the latest AI models. This update to @Kaggle Game Arena with werewolf and poker (heads-up) plus chess, gives us new objective measures of real-world skills like planning and decision making under uncertainty.</t>
         </is>
       </c>
       <c r="F106" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/ylecun/status/2018716919214260715</t>
+          <t>https://x.com/demishassabis/status/2018385757816181178</t>
         </is>
       </c>
       <c r="G106" s="7" t="n">
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="H106" s="7" t="n">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>Tue Feb 03 16:03:14 +0000 2026</t>
+          <t>Mon Feb 02 18:07:19 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4761,34 +4755,35 @@
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@demishassabis</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
+          <t>Demis Hassabis</t>
         </is>
       </c>
       <c r="D107" s="5" t="inlineStr"/>
       <c r="E107" s="5" t="inlineStr">
         <is>
-          <t>RT @NotDevinsMom: 36 people in the Trump administration are in the Epstein files.</t>
+          <t>RT @GMHikaru: We know AI dominates the chess board ♟️, but can it also handle a bluff?
+Today we’re moving from perfect calculation to also…</t>
         </is>
       </c>
       <c r="F107" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/ylecun/status/2018570097791783238</t>
+          <t>https://x.com/demishassabis/status/2018382446794768707</t>
         </is>
       </c>
       <c r="G107" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H107" s="7" t="n">
-        <v>10742</v>
+        <v>15</v>
       </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
-          <t>Tue Feb 03 06:19:49 +0000 2026</t>
+          <t>Mon Feb 02 17:54:09 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4800,34 +4795,34 @@
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@demishassabis</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
+          <t>Demis Hassabis</t>
         </is>
       </c>
       <c r="D108" s="5" t="inlineStr"/>
       <c r="E108" s="5" t="inlineStr">
         <is>
-          <t>RT @mjfree: https://t.co/aJh0esG2Dl</t>
+          <t>RT @Liv_Boeree: Excited to be a part of this! Tune in to find out which LLMs are best at poker, chess and werewolf</t>
         </is>
       </c>
       <c r="F108" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/ylecun/status/2018569580206051773</t>
+          <t>https://x.com/demishassabis/status/2018379652838957224</t>
         </is>
       </c>
       <c r="G108" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H108" s="7" t="n">
-        <v>7505</v>
+        <v>12</v>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>Tue Feb 03 06:17:45 +0000 2026</t>
+          <t>Mon Feb 02 17:43:03 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4839,34 +4834,35 @@
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@demishassabis</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
+          <t>Demis Hassabis</t>
         </is>
       </c>
       <c r="D109" s="5" t="inlineStr"/>
       <c r="E109" s="5" t="inlineStr">
         <is>
-          <t>RT @ChrisMurphyCT: A UAE investor secretly gave Trump $187 million and his top Middle East envoy $31 million. And then Trump gave that inve…</t>
+          <t>RT @emollick: Playing as Godot, finally arriving.
+Just as Beckett intended, thanks to AI. https://t.co/nR22yJdhc0</t>
         </is>
       </c>
       <c r="F109" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/ylecun/status/2018566773868818691</t>
+          <t>https://x.com/demishassabis/status/2018327791096287250</t>
         </is>
       </c>
       <c r="G109" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H109" s="7" t="n">
-        <v>17687</v>
+        <v>27</v>
       </c>
       <c r="I109" s="2" t="inlineStr">
         <is>
-          <t>Tue Feb 03 06:06:36 +0000 2026</t>
+          <t>Mon Feb 02 14:16:58 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4878,34 +4874,35 @@
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@demishassabis</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
+          <t>Demis Hassabis</t>
         </is>
       </c>
       <c r="D110" s="5" t="inlineStr"/>
       <c r="E110" s="5" t="inlineStr">
         <is>
-          <t>RT @daddyhope: I do not feel sorry at all for any American who voted for the corrupt Donald Trump. The whole world knew that Donald Trump w…</t>
+          <t>RT @steren: Free Solo: The Game
+Genie 3: https://t.co/ITfEETGdEF</t>
         </is>
       </c>
       <c r="F110" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/ylecun/status/2018566675289780395</t>
+          <t>https://x.com/demishassabis/status/2017715475518500989</t>
         </is>
       </c>
       <c r="G110" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H110" s="7" t="n">
-        <v>2917</v>
+        <v>125</v>
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>Tue Feb 03 06:06:13 +0000 2026</t>
+          <t>Sat Jan 31 21:43:51 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -4917,731 +4914,57 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>@ylecun</t>
+          <t>@demishassabis</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Yann LeCun</t>
+          <t>Demis Hassabis</t>
         </is>
       </c>
       <c r="D111" s="5" t="inlineStr"/>
       <c r="E111" s="5" t="inlineStr">
-        <is>
-          <t>RT @SenMarkKelly: If a president can threaten one journalist for doing their job, they can threaten every journalist. Where do these violat…</t>
-        </is>
-      </c>
-      <c r="F111" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/ylecun/status/2018542590904402384</t>
-        </is>
-      </c>
-      <c r="G111" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" s="7" t="n">
-        <v>2236</v>
-      </c>
-      <c r="I111" s="2" t="inlineStr">
-        <is>
-          <t>Tue Feb 03 04:30:31 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="112" ht="30" customHeight="1">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B112" s="3" t="inlineStr">
-        <is>
-          <t>@ylecun</t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t>Yann LeCun</t>
-        </is>
-      </c>
-      <c r="D112" s="5" t="inlineStr"/>
-      <c r="E112" s="5" t="inlineStr">
-        <is>
-          <t>RT @highbrow_nobrow: It certainly looks like Jeffrey Epstein conspired with well-known billionaires to undermine democratic institutions an…</t>
-        </is>
-      </c>
-      <c r="F112" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/ylecun/status/2018528131074977981</t>
-        </is>
-      </c>
-      <c r="G112" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" s="7" t="n">
-        <v>2513</v>
-      </c>
-      <c r="I112" s="2" t="inlineStr">
-        <is>
-          <t>Tue Feb 03 03:33:03 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="113" ht="30" customHeight="1">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B113" s="3" t="inlineStr">
-        <is>
-          <t>@ylecun</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>Yann LeCun</t>
-        </is>
-      </c>
-      <c r="D113" s="5" t="inlineStr"/>
-      <c r="E113" s="5" t="inlineStr">
-        <is>
-          <t>Pedophile and racist.</t>
-        </is>
-      </c>
-      <c r="F113" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/ylecun/status/2018527542488269185</t>
-        </is>
-      </c>
-      <c r="G113" s="7" t="n">
-        <v>692</v>
-      </c>
-      <c r="H113" s="7" t="n">
-        <v>59</v>
-      </c>
-      <c r="I113" s="2" t="inlineStr">
-        <is>
-          <t>Tue Feb 03 03:30:43 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="114" ht="30" customHeight="1">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B114" s="3" t="inlineStr">
-        <is>
-          <t>@ylecun</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>Yann LeCun</t>
-        </is>
-      </c>
-      <c r="D114" s="5" t="inlineStr"/>
-      <c r="E114" s="5" t="inlineStr">
-        <is>
-          <t>RT @BohuslavskaKate: Germany’s AfD Alice Weidel is calling to cease support for Ukraine, block EU and NATO membership, and calls Ukraine a…</t>
-        </is>
-      </c>
-      <c r="F114" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/ylecun/status/2018524835576414578</t>
-        </is>
-      </c>
-      <c r="G114" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" s="7" t="n">
-        <v>2050</v>
-      </c>
-      <c r="I114" s="2" t="inlineStr">
-        <is>
-          <t>Tue Feb 03 03:19:57 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="115" ht="30" customHeight="1">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B115" s="3" t="inlineStr">
-        <is>
-          <t>@ylecun</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t>Yann LeCun</t>
-        </is>
-      </c>
-      <c r="D115" s="5" t="inlineStr"/>
-      <c r="E115" s="5" t="inlineStr">
-        <is>
-          <t>RT @WeberFrancois1: Far Right Le Pen Family Implicated as Russian Funded Assets in Recently Released Epstein Files.
-La famille Le Pen, fig…</t>
-        </is>
-      </c>
-      <c r="F115" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/ylecun/status/2018177850008891778</t>
-        </is>
-      </c>
-      <c r="G115" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" s="7" t="n">
-        <v>248</v>
-      </c>
-      <c r="I115" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 04:21:10 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="116" ht="30" customHeight="1">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B116" s="3" t="inlineStr">
-        <is>
-          <t>@ylecun</t>
-        </is>
-      </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t>Yann LeCun</t>
-        </is>
-      </c>
-      <c r="D116" s="5" t="inlineStr"/>
-      <c r="E116" s="5" t="inlineStr">
-        <is>
-          <t>RT @JohnCleese: Now that Epstein and Putin are irretrievably linked, the end is nigh</t>
-        </is>
-      </c>
-      <c r="F116" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/ylecun/status/2018177410022150424</t>
-        </is>
-      </c>
-      <c r="G116" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" s="7" t="n">
-        <v>1029</v>
-      </c>
-      <c r="I116" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 04:19:25 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="117" ht="30" customHeight="1">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B117" s="3" t="inlineStr">
-        <is>
-          <t>@ylecun</t>
-        </is>
-      </c>
-      <c r="C117" s="3" t="inlineStr">
-        <is>
-          <t>Yann LeCun</t>
-        </is>
-      </c>
-      <c r="D117" s="5" t="inlineStr"/>
-      <c r="E117" s="5" t="inlineStr">
-        <is>
-          <t>RT @FrontRep: 🚨🇫🇷🇺🇸 ALERTE INFO - Marine Le Pen et le Front national sont mentionnés dans les dossiers de l'affaire Epstein.
-Des échanges…</t>
-        </is>
-      </c>
-      <c r="F117" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/ylecun/status/2018120308721414317</t>
-        </is>
-      </c>
-      <c r="G117" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" s="7" t="n">
-        <v>424</v>
-      </c>
-      <c r="I117" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 00:32:31 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="118" ht="30" customHeight="1">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B118" s="3" t="inlineStr">
-        <is>
-          <t>@ylecun</t>
-        </is>
-      </c>
-      <c r="C118" s="3" t="inlineStr">
-        <is>
-          <t>Yann LeCun</t>
-        </is>
-      </c>
-      <c r="D118" s="5" t="inlineStr"/>
-      <c r="E118" s="5" t="inlineStr">
-        <is>
-          <t>RT @JayinKyiv: Anyone that still didn't know that France's far-right darling, Marine Le Pen is funded by Russia.
-"was having a meeting yes…</t>
-        </is>
-      </c>
-      <c r="F118" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/ylecun/status/2018119382942023858</t>
-        </is>
-      </c>
-      <c r="G118" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" s="7" t="n">
-        <v>6012</v>
-      </c>
-      <c r="I118" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 00:28:50 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="119" ht="30" customHeight="1">
-      <c r="A119" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B119" s="3" t="inlineStr">
-        <is>
-          <t>@ylecun</t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="inlineStr">
-        <is>
-          <t>Yann LeCun</t>
-        </is>
-      </c>
-      <c r="D119" s="5" t="inlineStr"/>
-      <c r="E119" s="5" t="inlineStr">
-        <is>
-          <t>RT @VraserX: Yann LeCun says language isn’t intelligence. Predicting text doesn’t mean understanding reality. The real world is messy, phys…</t>
-        </is>
-      </c>
-      <c r="F119" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/ylecun/status/2018119262494134543</t>
-        </is>
-      </c>
-      <c r="G119" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" s="7" t="n">
-        <v>166</v>
-      </c>
-      <c r="I119" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 00:28:21 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="120" ht="30" customHeight="1">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B120" s="3" t="inlineStr">
-        <is>
-          <t>@demishassabis</t>
-        </is>
-      </c>
-      <c r="C120" s="3" t="inlineStr">
-        <is>
-          <t>Demis Hassabis</t>
-        </is>
-      </c>
-      <c r="D120" s="4" t="inlineStr">
-        <is>
-          <t>Demis Hassabis今日重点推广了Project Genie（可由文本生成实时可玩世界的AI原型）、Gemini在数学发现和游戏竞技（如狼人杀、扑克）中的应用，以及AlphaGenome基因组模型。</t>
-        </is>
-      </c>
-      <c r="E120" s="5" t="inlineStr">
-        <is>
-          <t>RT @infiniteyay: exploring how far I can push Genie 3 🤯 https://t.co/5c2NkyiV2n</t>
-        </is>
-      </c>
-      <c r="F120" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/demishassabis/status/2018432675174813797</t>
-        </is>
-      </c>
-      <c r="G120" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" s="7" t="n">
-        <v>232</v>
-      </c>
-      <c r="I120" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 21:13:45 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="121" ht="30" customHeight="1">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t>@demishassabis</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="inlineStr">
-        <is>
-          <t>Demis Hassabis</t>
-        </is>
-      </c>
-      <c r="D121" s="5" t="inlineStr"/>
-      <c r="E121" s="5" t="inlineStr">
-        <is>
-          <t>RT @quocleix: Excited to share our latest work: "Semi-Autonomous Mathematics Discovery with Gemini." We used Gemini to systematically evalu…</t>
-        </is>
-      </c>
-      <c r="F121" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/demishassabis/status/2018430475388231929</t>
-        </is>
-      </c>
-      <c r="G121" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" s="7" t="n">
-        <v>206</v>
-      </c>
-      <c r="I121" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 21:05:00 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="122" ht="30" customHeight="1">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B122" s="3" t="inlineStr">
-        <is>
-          <t>@demishassabis</t>
-        </is>
-      </c>
-      <c r="C122" s="3" t="inlineStr">
-        <is>
-          <t>Demis Hassabis</t>
-        </is>
-      </c>
-      <c r="D122" s="5" t="inlineStr"/>
-      <c r="E122" s="5" t="inlineStr">
-        <is>
-          <t>RT @Liv_Boeree: WHICH AI IS THE BEST GAMES PLAYER?!
-Google are launching their “AI Game Arena” today, which pits all the major LLMs (Gemin…</t>
-        </is>
-      </c>
-      <c r="F122" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/demishassabis/status/2018386778521014537</t>
-        </is>
-      </c>
-      <c r="G122" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" s="7" t="n">
-        <v>39</v>
-      </c>
-      <c r="I122" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 18:11:22 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="123" ht="30" customHeight="1">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>@demishassabis</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>Demis Hassabis</t>
-        </is>
-      </c>
-      <c r="D123" s="5" t="inlineStr"/>
-      <c r="E123" s="5" t="inlineStr">
-        <is>
-          <t>The AI field is in need of harder benchmarks to test capabilities of the latest AI models. This update to @Kaggle Game Arena with werewolf and poker (heads-up) plus chess, gives us new objective measures of real-world skills like planning and decision making under uncertainty.</t>
-        </is>
-      </c>
-      <c r="F123" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/demishassabis/status/2018385757816181178</t>
-        </is>
-      </c>
-      <c r="G123" s="7" t="n">
-        <v>1389</v>
-      </c>
-      <c r="H123" s="7" t="n">
-        <v>167</v>
-      </c>
-      <c r="I123" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 18:07:19 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="124" ht="30" customHeight="1">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t>@demishassabis</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>Demis Hassabis</t>
-        </is>
-      </c>
-      <c r="D124" s="5" t="inlineStr"/>
-      <c r="E124" s="5" t="inlineStr">
-        <is>
-          <t>RT @GMHikaru: We know AI dominates the chess board ♟️, but can it also handle a bluff?
-Today we’re moving from perfect calculation to also…</t>
-        </is>
-      </c>
-      <c r="F124" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/demishassabis/status/2018382446794768707</t>
-        </is>
-      </c>
-      <c r="G124" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="I124" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 17:54:09 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="125" ht="30" customHeight="1">
-      <c r="A125" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t>@demishassabis</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t>Demis Hassabis</t>
-        </is>
-      </c>
-      <c r="D125" s="5" t="inlineStr"/>
-      <c r="E125" s="5" t="inlineStr">
-        <is>
-          <t>RT @Liv_Boeree: Excited to be a part of this! Tune in to find out which LLMs are best at poker, chess and werewolf</t>
-        </is>
-      </c>
-      <c r="F125" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/demishassabis/status/2018379652838957224</t>
-        </is>
-      </c>
-      <c r="G125" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="I125" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 17:43:03 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="126" ht="30" customHeight="1">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B126" s="3" t="inlineStr">
-        <is>
-          <t>@demishassabis</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t>Demis Hassabis</t>
-        </is>
-      </c>
-      <c r="D126" s="5" t="inlineStr"/>
-      <c r="E126" s="5" t="inlineStr">
-        <is>
-          <t>RT @emollick: Playing as Godot, finally arriving.
-Just as Beckett intended, thanks to AI. https://t.co/nR22yJdhc0</t>
-        </is>
-      </c>
-      <c r="F126" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/demishassabis/status/2018327791096287250</t>
-        </is>
-      </c>
-      <c r="G126" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="I126" s="2" t="inlineStr">
-        <is>
-          <t>Mon Feb 02 14:16:58 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="127" ht="30" customHeight="1">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B127" s="3" t="inlineStr">
-        <is>
-          <t>@demishassabis</t>
-        </is>
-      </c>
-      <c r="C127" s="3" t="inlineStr">
-        <is>
-          <t>Demis Hassabis</t>
-        </is>
-      </c>
-      <c r="D127" s="5" t="inlineStr"/>
-      <c r="E127" s="5" t="inlineStr">
-        <is>
-          <t>RT @steren: Free Solo: The Game
-Genie 3: https://t.co/ITfEETGdEF</t>
-        </is>
-      </c>
-      <c r="F127" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/demishassabis/status/2017715475518500989</t>
-        </is>
-      </c>
-      <c r="G127" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" s="7" t="n">
-        <v>125</v>
-      </c>
-      <c r="I127" s="2" t="inlineStr">
-        <is>
-          <t>Sat Jan 31 21:43:51 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="128" ht="30" customHeight="1">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B128" s="3" t="inlineStr">
-        <is>
-          <t>@demishassabis</t>
-        </is>
-      </c>
-      <c r="C128" s="3" t="inlineStr">
-        <is>
-          <t>Demis Hassabis</t>
-        </is>
-      </c>
-      <c r="D128" s="5" t="inlineStr"/>
-      <c r="E128" s="5" t="inlineStr">
         <is>
           <t>RT @mattshumer_: HOLY FUCK
 Genie 3 is the craziest thing I've tried in a long time
 Just... wow. Watch this. https://t.co/7BQ329TSxP</t>
         </is>
       </c>
-      <c r="F128" s="6" t="inlineStr">
+      <c r="F111" s="6" t="inlineStr">
         <is>
           <t>https://x.com/demishassabis/status/2017342721598382369</t>
         </is>
       </c>
-      <c r="G128" s="7" t="n">
+      <c r="G111" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H128" s="7" t="n">
+      <c r="H111" s="7" t="n">
         <v>88</v>
       </c>
-      <c r="I128" s="2" t="inlineStr">
+      <c r="I111" s="2" t="inlineStr">
         <is>
           <t>Fri Jan 30 21:02:39 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="129" ht="30" customHeight="1">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B129" s="3" t="inlineStr">
+    <row r="112" ht="30" customHeight="1">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="inlineStr">
         <is>
           <t>@demishassabis</t>
         </is>
       </c>
-      <c r="C129" s="3" t="inlineStr">
+      <c r="C112" s="3" t="inlineStr">
         <is>
           <t>Demis Hassabis</t>
         </is>
       </c>
-      <c r="D129" s="5" t="inlineStr"/>
-      <c r="E129" s="5" t="inlineStr">
+      <c r="D112" s="5" t="inlineStr"/>
+      <c r="E112" s="5" t="inlineStr">
         <is>
           <t>RT @goodside: Environment:
 “34th Street–Penn Station”
@@ -5650,557 +4973,518 @@
 Genie 3: https://t.co/PnPav15t0I</t>
         </is>
       </c>
-      <c r="F129" s="6" t="inlineStr">
+      <c r="F112" s="6" t="inlineStr">
         <is>
           <t>https://x.com/demishassabis/status/2017249259016380506</t>
         </is>
       </c>
-      <c r="G129" s="7" t="n">
+      <c r="G112" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H129" s="7" t="n">
+      <c r="H112" s="7" t="n">
         <v>505</v>
       </c>
-      <c r="I129" s="2" t="inlineStr">
+      <c r="I112" s="2" t="inlineStr">
         <is>
           <t>Fri Jan 30 14:51:16 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="130" ht="30" customHeight="1">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B130" s="3" t="inlineStr">
+    <row r="113" ht="30" customHeight="1">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
         <is>
           <t>@demishassabis</t>
         </is>
       </c>
-      <c r="C130" s="3" t="inlineStr">
+      <c r="C113" s="3" t="inlineStr">
         <is>
           <t>Demis Hassabis</t>
         </is>
       </c>
-      <c r="D130" s="5" t="inlineStr"/>
-      <c r="E130" s="5" t="inlineStr">
+      <c r="D113" s="5" t="inlineStr"/>
+      <c r="E113" s="5" t="inlineStr">
         <is>
           <t>RT @venturetwins: I got early access to Project Genie from @GoogleDeepMind ✨
 It's unlike any realtime world model I've tried - you generat…</t>
         </is>
       </c>
-      <c r="F130" s="6" t="inlineStr">
+      <c r="F113" s="6" t="inlineStr">
         <is>
           <t>https://x.com/demishassabis/status/2017017751945068962</t>
         </is>
       </c>
-      <c r="G130" s="7" t="n">
+      <c r="G113" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H130" s="7" t="n">
+      <c r="H113" s="7" t="n">
         <v>173</v>
       </c>
-      <c r="I130" s="2" t="inlineStr">
+      <c r="I113" s="2" t="inlineStr">
         <is>
           <t>Thu Jan 29 23:31:21 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="131" ht="30" customHeight="1">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B131" s="3" t="inlineStr">
+    <row r="114" ht="30" customHeight="1">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="inlineStr">
         <is>
           <t>@demishassabis</t>
         </is>
       </c>
-      <c r="C131" s="3" t="inlineStr">
+      <c r="C114" s="3" t="inlineStr">
         <is>
           <t>Demis Hassabis</t>
         </is>
       </c>
-      <c r="D131" s="5" t="inlineStr"/>
-      <c r="E131" s="5" t="inlineStr">
+      <c r="D114" s="5" t="inlineStr"/>
+      <c r="E114" s="5" t="inlineStr">
         <is>
           <t>RT @emollick: Can Genie 3 run Doom?
 "Doom, but the walls are made entirely out of screens also running Doom, featuring the marine from Doo…</t>
         </is>
       </c>
-      <c r="F131" s="6" t="inlineStr">
+      <c r="F114" s="6" t="inlineStr">
         <is>
           <t>https://x.com/demishassabis/status/2016997344500142085</t>
         </is>
       </c>
-      <c r="G131" s="7" t="n">
+      <c r="G114" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H131" s="7" t="n">
+      <c r="H114" s="7" t="n">
         <v>184</v>
       </c>
-      <c r="I131" s="2" t="inlineStr">
+      <c r="I114" s="2" t="inlineStr">
         <is>
           <t>Thu Jan 29 22:10:15 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="132" ht="30" customHeight="1">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B132" s="3" t="inlineStr">
+    <row r="115" ht="30" customHeight="1">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
         <is>
           <t>@demishassabis</t>
         </is>
       </c>
-      <c r="C132" s="3" t="inlineStr">
+      <c r="C115" s="3" t="inlineStr">
         <is>
           <t>Demis Hassabis</t>
         </is>
       </c>
-      <c r="D132" s="5" t="inlineStr"/>
-      <c r="E132" s="5" t="inlineStr">
+      <c r="D115" s="5" t="inlineStr"/>
+      <c r="E115" s="5" t="inlineStr">
         <is>
           <t>Thrilled to launch Project Genie, an experimental prototype of the world's most advanced world model. Create entire playable worlds to explore in real-time just from a simple text prompt - kind of mindblowing really! Available to Ultra subs in the US for now - have fun exploring! https://t.co/2XDy0V0BW0</t>
         </is>
       </c>
-      <c r="F132" s="6" t="inlineStr">
+      <c r="F115" s="6" t="inlineStr">
         <is>
           <t>https://x.com/demishassabis/status/2016925155277361423</t>
         </is>
       </c>
-      <c r="G132" s="7" t="n">
-        <v>8001</v>
-      </c>
-      <c r="H132" s="7" t="n">
-        <v>950</v>
-      </c>
-      <c r="I132" s="2" t="inlineStr">
+      <c r="G115" s="7" t="n">
+        <v>8004</v>
+      </c>
+      <c r="H115" s="7" t="n">
+        <v>952</v>
+      </c>
+      <c r="I115" s="2" t="inlineStr">
         <is>
           <t>Thu Jan 29 17:23:24 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="133" ht="30" customHeight="1">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t>@demishassabis</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr">
-        <is>
-          <t>Demis Hassabis</t>
-        </is>
-      </c>
-      <c r="D133" s="5" t="inlineStr"/>
-      <c r="E133" s="5" t="inlineStr">
-        <is>
-          <t>RT @joshwoodward: 🇮🇳 Good morning India! A lot of you asked for full-length mock JEE Main tests in @GeminiApp at no cost - done! Good luck…</t>
-        </is>
-      </c>
-      <c r="F133" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/demishassabis/status/2016768036032901425</t>
-        </is>
-      </c>
-      <c r="G133" s="7" t="n">
+    <row r="116" ht="30" customHeight="1">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>@naval</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>Naval</t>
+        </is>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t>AI摘要暂时不可用</t>
+        </is>
+      </c>
+      <c r="E116" s="5" t="inlineStr">
+        <is>
+          <t>RT @aakashgupta: Litquidity is underselling it. This tweet accelerated the timeline on one of the largest corporate relocations in American…</t>
+        </is>
+      </c>
+      <c r="F116" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/naval/status/2019235061019922901</t>
+        </is>
+      </c>
+      <c r="G116" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H133" s="7" t="n">
-        <v>1195</v>
-      </c>
-      <c r="I133" s="2" t="inlineStr">
-        <is>
-          <t>Thu Jan 29 06:59:04 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="134" ht="30" customHeight="1">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t>@demishassabis</t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t>Demis Hassabis</t>
-        </is>
-      </c>
-      <c r="D134" s="5" t="inlineStr"/>
-      <c r="E134" s="5" t="inlineStr">
-        <is>
-          <t>AlphaGenome is our latest &amp;amp; most advanced genomics model published in @Nature today including making the model &amp;amp; weights available to academic researchers. Can’t wait to see what the research community will do with it. Congrats to the team on our newest front cover! #AI4Science</t>
-        </is>
-      </c>
-      <c r="F134" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/demishassabis/status/2016763919646478403</t>
-        </is>
-      </c>
-      <c r="G134" s="7" t="n">
-        <v>4819</v>
-      </c>
-      <c r="H134" s="7" t="n">
-        <v>680</v>
-      </c>
-      <c r="I134" s="2" t="inlineStr">
-        <is>
-          <t>Thu Jan 29 06:42:42 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="135" ht="30" customHeight="1">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B135" s="3" t="inlineStr">
+      <c r="H116" s="7" t="n">
+        <v>375</v>
+      </c>
+      <c r="I116" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 02:22:08 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="30" customHeight="1">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C135" s="3" t="inlineStr">
+      <c r="C117" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D135" s="4" t="inlineStr">
-        <is>
-          <t>Naval认为AI时代模型训练是新编码，Vibe coding是新产品管理，自定义工具、工作流或语言的学习已无意义，AI驱动的自学是自学者的乐园。</t>
-        </is>
-      </c>
-      <c r="E135" s="5" t="inlineStr">
+      <c r="D117" s="5" t="inlineStr"/>
+      <c r="E117" s="5" t="inlineStr">
         <is>
           <t>Envy is the acknowledgment of having lost a secret race.</t>
         </is>
       </c>
-      <c r="F135" s="6" t="inlineStr">
+      <c r="F117" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2019064703226393014</t>
         </is>
       </c>
-      <c r="G135" s="7" t="n">
-        <v>12359</v>
-      </c>
-      <c r="H135" s="7" t="n">
-        <v>1481</v>
-      </c>
-      <c r="I135" s="2" t="inlineStr">
+      <c r="G117" s="7" t="n">
+        <v>16186</v>
+      </c>
+      <c r="H117" s="7" t="n">
+        <v>1987</v>
+      </c>
+      <c r="I117" s="2" t="inlineStr">
         <is>
           <t>Wed Feb 04 15:05:12 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="136" ht="30" customHeight="1">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B136" s="3" t="inlineStr">
+    <row r="118" ht="30" customHeight="1">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C136" s="3" t="inlineStr">
+      <c r="C118" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D136" s="5" t="inlineStr"/>
-      <c r="E136" s="5" t="inlineStr">
+      <c r="D118" s="5" t="inlineStr"/>
+      <c r="E118" s="5" t="inlineStr">
         <is>
           <t>RT @garrytan: California's public-sector unions spend 100s of millions of $ yearly on elections and lobbying
 Opposition from citizens? Nor…</t>
         </is>
       </c>
-      <c r="F136" s="6" t="inlineStr">
+      <c r="F118" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2018880969521168634</t>
         </is>
       </c>
-      <c r="G136" s="7" t="n">
+      <c r="G118" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H136" s="7" t="n">
-        <v>206</v>
-      </c>
-      <c r="I136" s="2" t="inlineStr">
+      <c r="H118" s="7" t="n">
+        <v>208</v>
+      </c>
+      <c r="I118" s="2" t="inlineStr">
         <is>
           <t>Wed Feb 04 02:55:06 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="137" ht="30" customHeight="1">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B137" s="3" t="inlineStr">
+    <row r="119" ht="30" customHeight="1">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C137" s="3" t="inlineStr">
+      <c r="C119" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D137" s="5" t="inlineStr"/>
-      <c r="E137" s="5" t="inlineStr">
+      <c r="D119" s="5" t="inlineStr"/>
+      <c r="E119" s="5" t="inlineStr">
         <is>
           <t>RT @NavalismHQ: "If you don’t care to be liked, they can’t touch you."
 @naval</t>
         </is>
       </c>
-      <c r="F137" s="6" t="inlineStr">
+      <c r="F119" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2018634999365587138</t>
         </is>
       </c>
-      <c r="G137" s="7" t="n">
+      <c r="G119" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H137" s="7" t="n">
-        <v>493</v>
-      </c>
-      <c r="I137" s="2" t="inlineStr">
+      <c r="H119" s="7" t="n">
+        <v>506</v>
+      </c>
+      <c r="I119" s="2" t="inlineStr">
         <is>
           <t>Tue Feb 03 10:37:42 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="138" ht="30" customHeight="1">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B138" s="3" t="inlineStr">
+    <row r="120" ht="30" customHeight="1">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C138" s="3" t="inlineStr">
+      <c r="C120" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D138" s="5" t="inlineStr"/>
-      <c r="E138" s="5" t="inlineStr">
+      <c r="D120" s="5" t="inlineStr"/>
+      <c r="E120" s="5" t="inlineStr">
         <is>
           <t>Vibe coding is the new product management.
 Training and tuning models is the new coding.</t>
         </is>
       </c>
-      <c r="F138" s="6" t="inlineStr">
+      <c r="F120" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2018633583423049951</t>
         </is>
       </c>
-      <c r="G138" s="7" t="n">
-        <v>19992</v>
-      </c>
-      <c r="H138" s="7" t="n">
-        <v>2017</v>
-      </c>
-      <c r="I138" s="2" t="inlineStr">
+      <c r="G120" s="7" t="n">
+        <v>20633</v>
+      </c>
+      <c r="H120" s="7" t="n">
+        <v>2120</v>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
         <is>
           <t>Tue Feb 03 10:32:05 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="139" ht="30" customHeight="1">
-      <c r="A139" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B139" s="3" t="inlineStr">
+    <row r="121" ht="30" customHeight="1">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C139" s="3" t="inlineStr">
+      <c r="C121" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D139" s="5" t="inlineStr"/>
-      <c r="E139" s="5" t="inlineStr">
+      <c r="D121" s="5" t="inlineStr"/>
+      <c r="E121" s="5" t="inlineStr">
         <is>
           <t>RT @LoveCodeTrade: Bay Area transit is heading for a cliff. MUNI and BART each face $300M+ deficits by 2027. The solution? A ballot measure…</t>
         </is>
       </c>
-      <c r="F139" s="6" t="inlineStr">
+      <c r="F121" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2018498039590289467</t>
         </is>
       </c>
-      <c r="G139" s="7" t="n">
+      <c r="G121" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H139" s="7" t="n">
-        <v>155</v>
-      </c>
-      <c r="I139" s="2" t="inlineStr">
+      <c r="H121" s="7" t="n">
+        <v>156</v>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
         <is>
           <t>Tue Feb 03 01:33:29 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="140" ht="30" customHeight="1">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B140" s="3" t="inlineStr">
+    <row r="122" ht="30" customHeight="1">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C140" s="3" t="inlineStr">
+      <c r="C122" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D140" s="5" t="inlineStr"/>
-      <c r="E140" s="5" t="inlineStr">
+      <c r="D122" s="5" t="inlineStr"/>
+      <c r="E122" s="5" t="inlineStr">
         <is>
           <t>Moltbook is the new Reverse Turing Test.</t>
         </is>
       </c>
-      <c r="F140" s="6" t="inlineStr">
+      <c r="F122" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2018207017471750574</t>
         </is>
       </c>
-      <c r="G140" s="7" t="n">
-        <v>6968</v>
-      </c>
-      <c r="H140" s="7" t="n">
+      <c r="G122" s="7" t="n">
+        <v>6984</v>
+      </c>
+      <c r="H122" s="7" t="n">
         <v>523</v>
       </c>
-      <c r="I140" s="2" t="inlineStr">
+      <c r="I122" s="2" t="inlineStr">
         <is>
           <t>Mon Feb 02 06:17:04 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="141" ht="30" customHeight="1">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B141" s="3" t="inlineStr">
+    <row r="123" ht="30" customHeight="1">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C141" s="3" t="inlineStr">
+      <c r="C123" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D141" s="5" t="inlineStr"/>
-      <c r="E141" s="5" t="inlineStr">
+      <c r="D123" s="5" t="inlineStr"/>
+      <c r="E123" s="5" t="inlineStr">
         <is>
           <t>RT @NavalQuotes247: "Value your time. It is all you have. It’s more important than your money. It’s more important than your friends. It is…</t>
         </is>
       </c>
-      <c r="F141" s="6" t="inlineStr">
+      <c r="F123" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2017129749429068162</t>
         </is>
       </c>
-      <c r="G141" s="7" t="n">
+      <c r="G123" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H141" s="7" t="n">
-        <v>457</v>
-      </c>
-      <c r="I141" s="2" t="inlineStr">
+      <c r="H123" s="7" t="n">
+        <v>459</v>
+      </c>
+      <c r="I123" s="2" t="inlineStr">
         <is>
           <t>Fri Jan 30 06:56:23 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="142" ht="30" customHeight="1">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B142" s="3" t="inlineStr">
+    <row r="124" ht="30" customHeight="1">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C142" s="3" t="inlineStr">
+      <c r="C124" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D142" s="5" t="inlineStr"/>
-      <c r="E142" s="5" t="inlineStr">
+      <c r="D124" s="5" t="inlineStr"/>
+      <c r="E124" s="5" t="inlineStr">
         <is>
           <t>The willful and deliberate destruction of the tech industry by communists is a national security risk.</t>
         </is>
       </c>
-      <c r="F142" s="6" t="inlineStr">
+      <c r="F124" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2017114668322509256</t>
         </is>
       </c>
-      <c r="G142" s="7" t="n">
-        <v>6884</v>
-      </c>
-      <c r="H142" s="7" t="n">
-        <v>634</v>
-      </c>
-      <c r="I142" s="2" t="inlineStr">
+      <c r="G124" s="7" t="n">
+        <v>6889</v>
+      </c>
+      <c r="H124" s="7" t="n">
+        <v>633</v>
+      </c>
+      <c r="I124" s="2" t="inlineStr">
         <is>
           <t>Fri Jan 30 05:56:27 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="143" ht="30" customHeight="1">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B143" s="3" t="inlineStr">
+    <row r="125" ht="30" customHeight="1">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C143" s="3" t="inlineStr">
+      <c r="C125" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D143" s="5" t="inlineStr"/>
-      <c r="E143" s="5" t="inlineStr">
+      <c r="D125" s="5" t="inlineStr"/>
+      <c r="E125" s="5" t="inlineStr">
         <is>
           <t>If a rogue union in California seizes 8% from paper billionaires for its pet project,
 everyone with a just cause will run a vote to seize private property.
@@ -6208,397 +5492,517 @@
 Once the goose is bit, don’t be last to the feast.</t>
         </is>
       </c>
-      <c r="F143" s="6" t="inlineStr">
+      <c r="F125" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2016389763826385355</t>
         </is>
       </c>
-      <c r="G143" s="7" t="n">
-        <v>13149</v>
-      </c>
-      <c r="H143" s="7" t="n">
-        <v>1343</v>
-      </c>
-      <c r="I143" s="2" t="inlineStr">
+      <c r="G125" s="7" t="n">
+        <v>13150</v>
+      </c>
+      <c r="H125" s="7" t="n">
+        <v>1340</v>
+      </c>
+      <c r="I125" s="2" t="inlineStr">
         <is>
           <t>Wed Jan 28 05:55:57 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="144" ht="30" customHeight="1">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B144" s="3" t="inlineStr">
+    <row r="126" ht="30" customHeight="1">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C144" s="3" t="inlineStr">
+      <c r="C126" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D144" s="5" t="inlineStr"/>
-      <c r="E144" s="5" t="inlineStr">
+      <c r="D126" s="5" t="inlineStr"/>
+      <c r="E126" s="5" t="inlineStr">
         <is>
           <t>There’s no point in learning custom tools, workflows, or languages anymore.</t>
         </is>
       </c>
-      <c r="F144" s="6" t="inlineStr">
+      <c r="F126" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2016343169651409407</t>
         </is>
       </c>
-      <c r="G144" s="7" t="n">
-        <v>15871</v>
-      </c>
-      <c r="H144" s="7" t="n">
+      <c r="G126" s="7" t="n">
+        <v>15870</v>
+      </c>
+      <c r="H126" s="7" t="n">
         <v>944</v>
       </c>
-      <c r="I144" s="2" t="inlineStr">
+      <c r="I126" s="2" t="inlineStr">
         <is>
           <t>Wed Jan 28 02:50:48 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="145" ht="30" customHeight="1">
-      <c r="A145" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B145" s="3" t="inlineStr">
+    <row r="127" ht="30" customHeight="1">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C145" s="3" t="inlineStr">
+      <c r="C127" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D145" s="5" t="inlineStr"/>
-      <c r="E145" s="5" t="inlineStr">
+      <c r="D127" s="5" t="inlineStr"/>
+      <c r="E127" s="5" t="inlineStr">
         <is>
           <t>Better than being loved is to be in love.</t>
         </is>
       </c>
-      <c r="F145" s="6" t="inlineStr">
+      <c r="F127" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2016148317160538527</t>
         </is>
       </c>
-      <c r="G145" s="7" t="n">
-        <v>12892</v>
-      </c>
-      <c r="H145" s="7" t="n">
+      <c r="G127" s="7" t="n">
+        <v>12901</v>
+      </c>
+      <c r="H127" s="7" t="n">
         <v>1103</v>
       </c>
-      <c r="I145" s="2" t="inlineStr">
+      <c r="I127" s="2" t="inlineStr">
         <is>
           <t>Tue Jan 27 13:56:31 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="146" ht="30" customHeight="1">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B146" s="3" t="inlineStr">
+    <row r="128" ht="30" customHeight="1">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C146" s="3" t="inlineStr">
+      <c r="C128" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D146" s="5" t="inlineStr"/>
-      <c r="E146" s="5" t="inlineStr">
+      <c r="D128" s="5" t="inlineStr"/>
+      <c r="E128" s="5" t="inlineStr">
         <is>
           <t>Work with hardcore people on hardcore things.</t>
         </is>
       </c>
-      <c r="F146" s="6" t="inlineStr">
+      <c r="F128" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2015760428207571116</t>
         </is>
       </c>
-      <c r="G146" s="7" t="n">
-        <v>17792</v>
-      </c>
-      <c r="H146" s="7" t="n">
-        <v>1827</v>
-      </c>
-      <c r="I146" s="2" t="inlineStr">
+      <c r="G128" s="7" t="n">
+        <v>17799</v>
+      </c>
+      <c r="H128" s="7" t="n">
+        <v>1828</v>
+      </c>
+      <c r="I128" s="2" t="inlineStr">
         <is>
           <t>Mon Jan 26 12:15:11 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="147" ht="30" customHeight="1">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B147" s="3" t="inlineStr">
+    <row r="129" ht="30" customHeight="1">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C147" s="3" t="inlineStr">
+      <c r="C129" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D147" s="5" t="inlineStr"/>
-      <c r="E147" s="5" t="inlineStr">
+      <c r="D129" s="5" t="inlineStr"/>
+      <c r="E129" s="5" t="inlineStr">
         <is>
           <t>The lesson of Substack is that people want to support each other in the concrete, not in the abstract.</t>
         </is>
       </c>
-      <c r="F147" s="6" t="inlineStr">
+      <c r="F129" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2015737066177593438</t>
         </is>
       </c>
-      <c r="G147" s="7" t="n">
-        <v>6369</v>
-      </c>
-      <c r="H147" s="7" t="n">
-        <v>281</v>
-      </c>
-      <c r="I147" s="2" t="inlineStr">
+      <c r="G129" s="7" t="n">
+        <v>6376</v>
+      </c>
+      <c r="H129" s="7" t="n">
+        <v>282</v>
+      </c>
+      <c r="I129" s="2" t="inlineStr">
         <is>
           <t>Mon Jan 26 10:42:21 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="148" ht="30" customHeight="1">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B148" s="3" t="inlineStr">
+    <row r="130" ht="30" customHeight="1">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C148" s="3" t="inlineStr">
+      <c r="C130" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D148" s="5" t="inlineStr"/>
-      <c r="E148" s="5" t="inlineStr">
+      <c r="D130" s="5" t="inlineStr"/>
+      <c r="E130" s="5" t="inlineStr">
         <is>
           <t>On Scott Adams.
 A man finds, to his astonishment, that he exists. After the elation of childhood wears off, he asks, who am I, why am I here, how does this work? These are hard questions, so after a brief struggle, he selects a readymade answer and goes about the motions of</t>
         </is>
       </c>
-      <c r="F148" s="6" t="inlineStr">
+      <c r="F130" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2015658260007920095</t>
         </is>
       </c>
-      <c r="G148" s="7" t="n">
-        <v>15024</v>
-      </c>
-      <c r="H148" s="7" t="n">
-        <v>1903</v>
-      </c>
-      <c r="I148" s="2" t="inlineStr">
+      <c r="G130" s="7" t="n">
+        <v>15031</v>
+      </c>
+      <c r="H130" s="7" t="n">
+        <v>1901</v>
+      </c>
+      <c r="I130" s="2" t="inlineStr">
         <is>
           <t>Mon Jan 26 05:29:12 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="149" ht="30" customHeight="1">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B149" s="3" t="inlineStr">
+    <row r="131" ht="30" customHeight="1">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C149" s="3" t="inlineStr">
+      <c r="C131" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D149" s="5" t="inlineStr"/>
-      <c r="E149" s="5" t="inlineStr">
+      <c r="D131" s="5" t="inlineStr"/>
+      <c r="E131" s="5" t="inlineStr">
         <is>
           <t>After photography, art got weird. AI will push creativity even further towards the edges.</t>
         </is>
       </c>
-      <c r="F149" s="6" t="inlineStr">
+      <c r="F131" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2014696043510919292</t>
         </is>
       </c>
-      <c r="G149" s="7" t="n">
-        <v>6317</v>
-      </c>
-      <c r="H149" s="7" t="n">
+      <c r="G131" s="7" t="n">
+        <v>6318</v>
+      </c>
+      <c r="H131" s="7" t="n">
         <v>371</v>
       </c>
-      <c r="I149" s="2" t="inlineStr">
+      <c r="I131" s="2" t="inlineStr">
         <is>
           <t>Fri Jan 23 13:45:42 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="150" ht="30" customHeight="1">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B150" s="3" t="inlineStr">
+    <row r="132" ht="30" customHeight="1">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C150" s="3" t="inlineStr">
+      <c r="C132" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D150" s="5" t="inlineStr"/>
-      <c r="E150" s="5" t="inlineStr">
+      <c r="D132" s="5" t="inlineStr"/>
+      <c r="E132" s="5" t="inlineStr">
         <is>
           <t>Self-directed learning through AIs is an autodidact’s paradise.</t>
         </is>
       </c>
-      <c r="F150" s="6" t="inlineStr">
+      <c r="F132" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2014286249025298751</t>
         </is>
       </c>
-      <c r="G150" s="7" t="n">
+      <c r="G132" s="7" t="n">
         <v>19708</v>
       </c>
-      <c r="H150" s="7" t="n">
-        <v>1929</v>
-      </c>
-      <c r="I150" s="2" t="inlineStr">
+      <c r="H132" s="7" t="n">
+        <v>1927</v>
+      </c>
+      <c r="I132" s="2" t="inlineStr">
         <is>
           <t>Thu Jan 22 10:37:20 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="151" ht="30" customHeight="1">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B151" s="3" t="inlineStr">
+    <row r="133" ht="30" customHeight="1">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
         <is>
           <t>@naval</t>
         </is>
       </c>
-      <c r="C151" s="3" t="inlineStr">
+      <c r="C133" s="3" t="inlineStr">
         <is>
           <t>Naval</t>
         </is>
       </c>
-      <c r="D151" s="5" t="inlineStr"/>
-      <c r="E151" s="5" t="inlineStr">
+      <c r="D133" s="5" t="inlineStr"/>
+      <c r="E133" s="5" t="inlineStr">
         <is>
           <t>The fundamental human disease is separation, and its symptom is loneliness.</t>
         </is>
       </c>
-      <c r="F151" s="6" t="inlineStr">
+      <c r="F133" s="6" t="inlineStr">
         <is>
           <t>https://x.com/naval/status/2014034287247630682</t>
         </is>
       </c>
-      <c r="G151" s="7" t="n">
-        <v>10018</v>
-      </c>
-      <c r="H151" s="7" t="n">
+      <c r="G133" s="7" t="n">
+        <v>10016</v>
+      </c>
+      <c r="H133" s="7" t="n">
         <v>840</v>
       </c>
-      <c r="I151" s="2" t="inlineStr">
+      <c r="I133" s="2" t="inlineStr">
         <is>
           <t>Wed Jan 21 17:56:07 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="152" ht="30" customHeight="1">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B152" s="3" t="inlineStr">
-        <is>
-          <t>@naval</t>
-        </is>
-      </c>
-      <c r="C152" s="3" t="inlineStr">
-        <is>
-          <t>Naval</t>
-        </is>
-      </c>
-      <c r="D152" s="5" t="inlineStr"/>
-      <c r="E152" s="5" t="inlineStr">
-        <is>
-          <t>The solution to anxiety is action.</t>
-        </is>
-      </c>
-      <c r="F152" s="6" t="inlineStr">
-        <is>
-          <t>https://x.com/naval/status/2013870666358087691</t>
-        </is>
-      </c>
-      <c r="G152" s="7" t="n">
-        <v>40438</v>
-      </c>
-      <c r="H152" s="7" t="n">
-        <v>5052</v>
-      </c>
-      <c r="I152" s="2" t="inlineStr">
-        <is>
-          <t>Wed Jan 21 07:05:57 +0000 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="153" ht="30" customHeight="1">
-      <c r="A153" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B153" s="3" t="inlineStr">
+    <row r="134" ht="30" customHeight="1">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="inlineStr">
         <is>
           <t>@balajis</t>
         </is>
       </c>
-      <c r="C153" s="3" t="inlineStr">
+      <c r="C134" s="3" t="inlineStr">
         <is>
           <t>Balaji Srinivasan</t>
         </is>
       </c>
-      <c r="D153" s="4" t="inlineStr">
-        <is>
-          <t>Balaji认为美元衰落导致权力真空，存在不同的安全模式；并讨论了比特币、加密货币在未来金融体系中的作用，以及AI在数字工作和个人可编程领域的应用。</t>
-        </is>
-      </c>
-      <c r="E153" s="5" t="inlineStr">
+      <c r="D134" s="4" t="inlineStr">
+        <is>
+          <t>AI摘要暂时不可用</t>
+        </is>
+      </c>
+      <c r="E134" s="5" t="inlineStr">
+        <is>
+          <t>I have never been more bullish on crypto.
+Because the rules-based order is collapsing and the code-based order is rising. So the short term price doesn’t matter.
+As international law breaks down, we will need not just onchain currencies, but onchain companies. As the post-war</t>
+        </is>
+      </c>
+      <c r="F134" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/balajis/status/2019372825241682335</t>
+        </is>
+      </c>
+      <c r="G134" s="7" t="n">
+        <v>1174</v>
+      </c>
+      <c r="H134" s="7" t="n">
+        <v>184</v>
+      </c>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 11:29:34 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="30" customHeight="1">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>@balajis</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>Balaji Srinivasan</t>
+        </is>
+      </c>
+      <c r="D135" s="5" t="inlineStr"/>
+      <c r="E135" s="5" t="inlineStr">
+        <is>
+          <t>Towards the Solana Network State.
+https://t.co/2vGXRZqhrM</t>
+        </is>
+      </c>
+      <c r="F135" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/balajis/status/2019367841259221190</t>
+        </is>
+      </c>
+      <c r="G135" s="7" t="n">
+        <v>526</v>
+      </c>
+      <c r="H135" s="7" t="n">
+        <v>62</v>
+      </c>
+      <c r="I135" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 11:09:46 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="30" customHeight="1">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>@balajis</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>Balaji Srinivasan</t>
+        </is>
+      </c>
+      <c r="D136" s="5" t="inlineStr"/>
+      <c r="E136" s="5" t="inlineStr">
+        <is>
+          <t>Building Ethereum at Network School.</t>
+        </is>
+      </c>
+      <c r="F136" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/balajis/status/2019367481283080358</t>
+        </is>
+      </c>
+      <c r="G136" s="7" t="n">
+        <v>329</v>
+      </c>
+      <c r="H136" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I136" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 11:08:20 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="30" customHeight="1">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>@balajis</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>Balaji Srinivasan</t>
+        </is>
+      </c>
+      <c r="D137" s="5" t="inlineStr"/>
+      <c r="E137" s="5" t="inlineStr">
+        <is>
+          <t>Live free and don’t die.</t>
+        </is>
+      </c>
+      <c r="F137" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/balajis/status/2019270192849879304</t>
+        </is>
+      </c>
+      <c r="G137" s="7" t="n">
+        <v>363</v>
+      </c>
+      <c r="H137" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="I137" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 04:41:44 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="30" customHeight="1">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>@balajis</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>Balaji Srinivasan</t>
+        </is>
+      </c>
+      <c r="D138" s="5" t="inlineStr"/>
+      <c r="E138" s="5" t="inlineStr">
         <is>
           <t>I agree but would elaborate.
 There are actually two security models: 
@@ -6606,164 +6010,164 @@
 Because as the dollar ends, a power vacuum is forming. The West itself is unfortunately no longer capable of maintaining order, either abroad or internally. The US military’s retreat from</t>
         </is>
       </c>
-      <c r="F153" s="6" t="inlineStr">
+      <c r="F138" s="6" t="inlineStr">
         <is>
           <t>https://x.com/balajis/status/2018690119537185185</t>
         </is>
       </c>
-      <c r="G153" s="7" t="n">
-        <v>817</v>
-      </c>
-      <c r="H153" s="7" t="n">
-        <v>86</v>
-      </c>
-      <c r="I153" s="2" t="inlineStr">
+      <c r="G138" s="7" t="n">
+        <v>825</v>
+      </c>
+      <c r="H138" s="7" t="n">
+        <v>93</v>
+      </c>
+      <c r="I138" s="2" t="inlineStr">
         <is>
           <t>Tue Feb 03 14:16:44 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="154" ht="30" customHeight="1">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B154" s="3" t="inlineStr">
+    <row r="139" ht="30" customHeight="1">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
         <is>
           <t>@balajis</t>
         </is>
       </c>
-      <c r="C154" s="3" t="inlineStr">
+      <c r="C139" s="3" t="inlineStr">
         <is>
           <t>Balaji Srinivasan</t>
         </is>
       </c>
-      <c r="D154" s="5" t="inlineStr"/>
-      <c r="E154" s="5" t="inlineStr">
+      <c r="D139" s="5" t="inlineStr"/>
+      <c r="E139" s="5" t="inlineStr">
         <is>
           <t>When Xi visited San Francisco, they knew what to do.
 Democrats rolled out the red carpet for Communists. And kept their violent drug-addicted pets far away.
 So: the poor American citizens are at the mercy of Democrat machetes. But the key Communist leaders have total immunity. https://t.co/73wN6kzQhY</t>
         </is>
       </c>
-      <c r="F154" s="6" t="inlineStr">
+      <c r="F139" s="6" t="inlineStr">
         <is>
           <t>https://x.com/balajis/status/2018681109547212923</t>
         </is>
       </c>
-      <c r="G154" s="7" t="n">
-        <v>1117</v>
-      </c>
-      <c r="H154" s="7" t="n">
+      <c r="G139" s="7" t="n">
+        <v>1121</v>
+      </c>
+      <c r="H139" s="7" t="n">
         <v>116</v>
       </c>
-      <c r="I154" s="2" t="inlineStr">
+      <c r="I139" s="2" t="inlineStr">
         <is>
           <t>Tue Feb 03 13:40:56 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="155" ht="30" customHeight="1">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B155" s="3" t="inlineStr">
+    <row r="140" ht="30" customHeight="1">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B140" s="3" t="inlineStr">
         <is>
           <t>@balajis</t>
         </is>
       </c>
-      <c r="C155" s="3" t="inlineStr">
+      <c r="C140" s="3" t="inlineStr">
         <is>
           <t>Balaji Srinivasan</t>
         </is>
       </c>
-      <c r="D155" s="5" t="inlineStr"/>
-      <c r="E155" s="5" t="inlineStr">
+      <c r="D140" s="5" t="inlineStr"/>
+      <c r="E140" s="5" t="inlineStr">
         <is>
           <t>The physical reverse Turing Test.
 A robot so lifelike, they had to cut it open to prove it was a machine.
  https://t.co/JDaDJXCJ4j</t>
         </is>
       </c>
-      <c r="F155" s="6" t="inlineStr">
+      <c r="F140" s="6" t="inlineStr">
         <is>
           <t>https://x.com/balajis/status/2017931787750760827</t>
         </is>
       </c>
-      <c r="G155" s="7" t="n">
+      <c r="G140" s="7" t="n">
         <v>2713</v>
       </c>
-      <c r="H155" s="7" t="n">
-        <v>265</v>
-      </c>
-      <c r="I155" s="2" t="inlineStr">
+      <c r="H140" s="7" t="n">
+        <v>268</v>
+      </c>
+      <c r="I140" s="2" t="inlineStr">
         <is>
           <t>Sun Feb 01 12:03:24 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="156" ht="30" customHeight="1">
-      <c r="A156" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B156" s="3" t="inlineStr">
+    <row r="141" ht="30" customHeight="1">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
         <is>
           <t>@balajis</t>
         </is>
       </c>
-      <c r="C156" s="3" t="inlineStr">
+      <c r="C141" s="3" t="inlineStr">
         <is>
           <t>Balaji Srinivasan</t>
         </is>
       </c>
-      <c r="D156" s="5" t="inlineStr"/>
-      <c r="E156" s="5" t="inlineStr">
+      <c r="D141" s="5" t="inlineStr"/>
+      <c r="E141" s="5" t="inlineStr">
         <is>
           <t>I am apparently extremely unimpressed by moltbook relative to many others.
 We’ve had AI agents for a while. They have been posting AI slop to each other on X. They are now posting it to each other again, just on another forum.
 In every case, the AIs speak with the same voice.</t>
         </is>
       </c>
-      <c r="F156" s="6" t="inlineStr">
+      <c r="F141" s="6" t="inlineStr">
         <is>
           <t>https://x.com/balajis/status/2017544257238929716</t>
         </is>
       </c>
-      <c r="G156" s="7" t="n">
-        <v>8032</v>
-      </c>
-      <c r="H156" s="7" t="n">
-        <v>904</v>
-      </c>
-      <c r="I156" s="2" t="inlineStr">
+      <c r="G141" s="7" t="n">
+        <v>8038</v>
+      </c>
+      <c r="H141" s="7" t="n">
+        <v>903</v>
+      </c>
+      <c r="I141" s="2" t="inlineStr">
         <is>
           <t>Sat Jan 31 10:23:29 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="157" ht="30" customHeight="1">
-      <c r="A157" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B157" s="3" t="inlineStr">
+    <row r="142" ht="30" customHeight="1">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="inlineStr">
         <is>
           <t>@balajis</t>
         </is>
       </c>
-      <c r="C157" s="3" t="inlineStr">
+      <c r="C142" s="3" t="inlineStr">
         <is>
           <t>Balaji Srinivasan</t>
         </is>
       </c>
-      <c r="D157" s="5" t="inlineStr"/>
-      <c r="E157" s="5" t="inlineStr">
+      <c r="D142" s="5" t="inlineStr"/>
+      <c r="E142" s="5" t="inlineStr">
         <is>
           <t>Thesis: Fed.
 Antithesis: Bitcoin.
@@ -6771,61 +6175,683 @@
 https://t.co/WKSQYlxgxP</t>
         </is>
       </c>
-      <c r="F157" s="6" t="inlineStr">
+      <c r="F142" s="6" t="inlineStr">
         <is>
           <t>https://x.com/balajis/status/2017434161859207307</t>
         </is>
       </c>
-      <c r="G157" s="7" t="n">
+      <c r="G142" s="7" t="n">
         <v>2182</v>
       </c>
-      <c r="H157" s="7" t="n">
+      <c r="H142" s="7" t="n">
         <v>234</v>
       </c>
-      <c r="I157" s="2" t="inlineStr">
+      <c r="I142" s="2" t="inlineStr">
         <is>
           <t>Sat Jan 31 03:06:00 +0000 2026</t>
         </is>
       </c>
     </row>
-    <row r="158" ht="30" customHeight="1">
-      <c r="A158" s="2" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B158" s="3" t="inlineStr">
+    <row r="143" ht="30" customHeight="1">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
         <is>
           <t>@balajis</t>
         </is>
       </c>
-      <c r="C158" s="3" t="inlineStr">
+      <c r="C143" s="3" t="inlineStr">
         <is>
           <t>Balaji Srinivasan</t>
         </is>
       </c>
-      <c r="D158" s="5" t="inlineStr"/>
-      <c r="E158" s="5" t="inlineStr">
+      <c r="D143" s="5" t="inlineStr"/>
+      <c r="E143" s="5" t="inlineStr">
         <is>
           <t>In Nigeria, they can’t accept cash or cards.
 But they can accept cryptocurrency.
 https://t.co/VKE2SXAAp5</t>
         </is>
       </c>
+      <c r="F143" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/balajis/status/2017431736469360751</t>
+        </is>
+      </c>
+      <c r="G143" s="7" t="n">
+        <v>5010</v>
+      </c>
+      <c r="H143" s="7" t="n">
+        <v>428</v>
+      </c>
+      <c r="I143" s="2" t="inlineStr">
+        <is>
+          <t>Sat Jan 31 02:56:22 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="30" customHeight="1">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B144" s="3" t="inlineStr">
+        <is>
+          <t>@MengTo</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>Mengto</t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>@MengTo 今日分享了其利用 Gemini 3 等 AI 模型进行 UI 设计和落地页生成的经验，包括提示技巧、工作流以及相关教程链接。</t>
+        </is>
+      </c>
+      <c r="E144" s="5" t="inlineStr">
+        <is>
+          <t>Huge UI design boost by adding this to my AI workflow
+1. Explore variations with @variantui. The secret is to use "shuffle layout" and "see other views". This keeps the essence of a design that I like, but gives interesting layout variations. I also change colors and explore https://t.co/kwisoTBAJd</t>
+        </is>
+      </c>
+      <c r="F144" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/MengTo/status/2017255261141110924</t>
+        </is>
+      </c>
+      <c r="G144" s="7" t="n">
+        <v>592</v>
+      </c>
+      <c r="H144" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="I144" s="2" t="inlineStr">
+        <is>
+          <t>Fri Jan 30 15:15:07 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="30" customHeight="1">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>@MengTo</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>Mengto</t>
+        </is>
+      </c>
+      <c r="D145" s="5" t="inlineStr"/>
+      <c r="E145" s="5" t="inlineStr">
+        <is>
+          <t>My product passed 50k MRR. Half of it from last month. Bootstrapped, all vibe coded.
+People thought I was crazy to create a vibe coding tool without React. It’s useless without building a full app they said. AI can do everything they said.
+But I went all in on HTML. I focused https://t.co/uvWZjaQMnj</t>
+        </is>
+      </c>
+      <c r="F145" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/MengTo/status/1999440452408476019</t>
+        </is>
+      </c>
+      <c r="G145" s="7" t="n">
+        <v>731</v>
+      </c>
+      <c r="H145" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="I145" s="2" t="inlineStr">
+        <is>
+          <t>Fri Dec 12 11:25:26 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="30" customHeight="1">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B146" s="3" t="inlineStr">
+        <is>
+          <t>@MengTo</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>Mengto</t>
+        </is>
+      </c>
+      <c r="D146" s="5" t="inlineStr"/>
+      <c r="E146" s="5" t="inlineStr">
+        <is>
+          <t>How I turn my templates into real landing pages. 
+Works for any vibe coding platform or site. This is my full guide.
+I start with Gemini 3. I copy the HTML code and paste to Cursor/v0/lovable and prompt "Create a new landing page /page-name using this design but adapted to https://t.co/e4BlpMxKtf</t>
+        </is>
+      </c>
+      <c r="F146" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/MengTo/status/1998751260754030994</t>
+        </is>
+      </c>
+      <c r="G146" s="7" t="n">
+        <v>522</v>
+      </c>
+      <c r="H146" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>Wed Dec 10 13:46:50 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="30" customHeight="1">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>@MengTo</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>Mengto</t>
+        </is>
+      </c>
+      <c r="D147" s="5" t="inlineStr"/>
+      <c r="E147" s="5" t="inlineStr">
+        <is>
+          <t>I recorded a 50-min tutorial on prompting top-tier landing pages with Gemini 3 https://t.co/vef9JNKNPD</t>
+        </is>
+      </c>
+      <c r="F147" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/MengTo/status/1996986766591680883</t>
+        </is>
+      </c>
+      <c r="G147" s="7" t="n">
+        <v>7295</v>
+      </c>
+      <c r="H147" s="7" t="n">
+        <v>722</v>
+      </c>
+      <c r="I147" s="2" t="inlineStr">
+        <is>
+          <t>Fri Dec 05 16:55:22 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="30" customHeight="1">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>@MengTo</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>Mengto</t>
+        </is>
+      </c>
+      <c r="D148" s="5" t="inlineStr"/>
+      <c r="E148" s="5" t="inlineStr">
+        <is>
+          <t>How I created these landing pages with Gemini 3 from start to finish
+First, I start with the hero section. It includes the nav bar, eyebrow, headline, subheadline, cta, social proof and visual. I spend 50% of the time here because it sets the colors, typography, spacing, which https://t.co/W0NfCbi3SX</t>
+        </is>
+      </c>
+      <c r="F148" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/MengTo/status/1995865589446054102</t>
+        </is>
+      </c>
+      <c r="G148" s="7" t="n">
+        <v>4429</v>
+      </c>
+      <c r="H148" s="7" t="n">
+        <v>409</v>
+      </c>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>Tue Dec 02 14:40:12 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="30" customHeight="1">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>@MengTo</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>Mengto</t>
+        </is>
+      </c>
+      <c r="D149" s="5" t="inlineStr"/>
+      <c r="E149" s="5" t="inlineStr">
+        <is>
+          <t>I recorded a 45-min tutorial on how to prompt animations with Gemini 3 https://t.co/ng3o2pUrxh</t>
+        </is>
+      </c>
+      <c r="F149" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/MengTo/status/1994058991106969950</t>
+        </is>
+      </c>
+      <c r="G149" s="7" t="n">
+        <v>5634</v>
+      </c>
+      <c r="H149" s="7" t="n">
+        <v>631</v>
+      </c>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>Thu Nov 27 15:01:25 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="30" customHeight="1">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>@MengTo</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>Mengto</t>
+        </is>
+      </c>
+      <c r="D150" s="5" t="inlineStr"/>
+      <c r="E150" s="5" t="inlineStr">
+        <is>
+          <t>So I asked Gemini 3 to turn my tweets into instagram slides. 
+It created a template in HTML. https://t.co/rPd75aXixO</t>
+        </is>
+      </c>
+      <c r="F150" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/MengTo/status/1993714101936439795</t>
+        </is>
+      </c>
+      <c r="G150" s="7" t="n">
+        <v>2044</v>
+      </c>
+      <c r="H150" s="7" t="n">
+        <v>97</v>
+      </c>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>Wed Nov 26 16:10:57 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="30" customHeight="1">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>@MengTo</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>Mengto</t>
+        </is>
+      </c>
+      <c r="D151" s="5" t="inlineStr"/>
+      <c r="E151" s="5" t="inlineStr">
+        <is>
+          <t>Claude 4.5 Opus is actually a big upgrade.
+Great vision, better understanding of layout, colors, typography and animations.
+But still not quite Gemini 3 Pro. Honestly, it doesn't have to be. It's faster, more stable and is a beast at coding. Outside of UI, it managed to solve a https://t.co/tNTUozj4dO</t>
+        </is>
+      </c>
+      <c r="F151" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/MengTo/status/1993349494797484244</t>
+        </is>
+      </c>
+      <c r="G151" s="7" t="n">
+        <v>550</v>
+      </c>
+      <c r="H151" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>Tue Nov 25 16:02:08 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="30" customHeight="1">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B152" s="3" t="inlineStr">
+        <is>
+          <t>@MengTo</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>Mengto</t>
+        </is>
+      </c>
+      <c r="D152" s="5" t="inlineStr"/>
+      <c r="E152" s="5" t="inlineStr">
+        <is>
+          <t>Gemini 3 is the best model at creating animations. It's not even close.
+Here are the prompts I used for creating these UI animations.
+You don't need animations everywhere, but there are key places where it can enhance your design: the hero intro, hover interactions, slow https://t.co/AYGLJIKglh</t>
+        </is>
+      </c>
+      <c r="F152" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/MengTo/status/1992213336205951143</t>
+        </is>
+      </c>
+      <c r="G152" s="7" t="n">
+        <v>3214</v>
+      </c>
+      <c r="H152" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="I152" s="2" t="inlineStr">
+        <is>
+          <t>Sat Nov 22 12:47:27 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="30" customHeight="1">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>@MengTo</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>Mengto</t>
+        </is>
+      </c>
+      <c r="D153" s="5" t="inlineStr"/>
+      <c r="E153" s="5" t="inlineStr">
+        <is>
+          <t>I recorded a 37-min tutorial on how to prompt with Gemini 3 to get the best UIs https://t.co/LEhYqdXnNI</t>
+        </is>
+      </c>
+      <c r="F153" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/MengTo/status/1991489885690364187</t>
+        </is>
+      </c>
+      <c r="G153" s="7" t="n">
+        <v>6300</v>
+      </c>
+      <c r="H153" s="7" t="n">
+        <v>625</v>
+      </c>
+      <c r="I153" s="2" t="inlineStr">
+        <is>
+          <t>Thu Nov 20 12:52:43 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="30" customHeight="1">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B154" s="3" t="inlineStr">
+        <is>
+          <t>@MengTo</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>Mengto</t>
+        </is>
+      </c>
+      <c r="D154" s="5" t="inlineStr"/>
+      <c r="E154" s="5" t="inlineStr">
+        <is>
+          <t>Okay, as a designer, I'm over the moon with Gemini 3.
+You can create far better results with the right prompting and references. Let's get into the details.
+So I started underwhelmed. A non-descriptive "create a landing page" will give you generic purple results. Barely better https://t.co/A8envmFx4J</t>
+        </is>
+      </c>
+      <c r="F154" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/MengTo/status/1991147510296084764</t>
+        </is>
+      </c>
+      <c r="G154" s="7" t="n">
+        <v>2816</v>
+      </c>
+      <c r="H154" s="7" t="n">
+        <v>163</v>
+      </c>
+      <c r="I154" s="2" t="inlineStr">
+        <is>
+          <t>Wed Nov 19 14:12:14 +0000 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="30" customHeight="1">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D155" s="4" t="inlineStr">
+        <is>
+          <t>@egeberkina 近期推文展示了多项AI图像生成技术的应用，包括身体塑形、风格迁移、基于蓝图的图像变换以及运动场景与抽象绘画的结合。</t>
+        </is>
+      </c>
+      <c r="E155" s="5" t="inlineStr">
+        <is>
+          <t>Someone painted this and meant it https://t.co/VTZ88mwoB7</t>
+        </is>
+      </c>
+      <c r="F155" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2019367027228742016</t>
+        </is>
+      </c>
+      <c r="G155" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="H155" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 11:06:31 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="30" customHeight="1">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D156" s="5" t="inlineStr"/>
+      <c r="E156" s="5" t="inlineStr">
+        <is>
+          <t>RT @egeberkina: Work hard 💪
+{
+ "task": "ultra_realistic_before_after_fitness_transformation",
+ "output": {
+ "type": "single_image_split_co…</t>
+        </is>
+      </c>
+      <c r="F156" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2019313183811596714</t>
+        </is>
+      </c>
+      <c r="G156" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="I156" s="2" t="inlineStr">
+        <is>
+          <t>Thu Feb 05 07:32:34 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="30" customHeight="1">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D157" s="5" t="inlineStr"/>
+      <c r="E157" s="5" t="inlineStr">
+        <is>
+          <t>Avatar edition
+{
+ "task": "image_style_transfer_3d_character",
+ "input": {
+ "source_image": "USER_UPLOADED_IMAGE",
+ "preserve_identity": true,
+ "preserve_pose": true,
+ "preserve_composition": true
+ },
+ "style_reference": {
+ "render_style": "stylized_3d_character",
+ "aesthetic": https://t.co/b2WaMcCJdi</t>
+        </is>
+      </c>
+      <c r="F157" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2019145333318856992</t>
+        </is>
+      </c>
+      <c r="G157" s="7" t="n">
+        <v>530</v>
+      </c>
+      <c r="H157" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="I157" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 20:25:36 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="30" customHeight="1">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D158" s="5" t="inlineStr"/>
+      <c r="E158" s="5" t="inlineStr">
+        <is>
+          <t>RT @egeberkina: Feels oddly calm
+--sref 2224065556 https://t.co/NnH8X7oiZd</t>
+        </is>
+      </c>
       <c r="F158" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/balajis/status/2017431736469360751</t>
+          <t>https://x.com/egeberkina/status/2019095231354765434</t>
         </is>
       </c>
       <c r="G158" s="7" t="n">
-        <v>5008</v>
+        <v>0</v>
       </c>
       <c r="H158" s="7" t="n">
-        <v>427</v>
+        <v>16</v>
       </c>
       <c r="I158" s="2" t="inlineStr">
         <is>
-          <t>Sat Jan 31 02:56:22 +0000 2026</t>
+          <t>Wed Feb 04 17:06:30 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -6837,36 +6863,36 @@
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>@balajis</t>
+          <t>@egeberkina</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>Balaji Srinivasan</t>
+          <t>egeberkina</t>
         </is>
       </c>
       <c r="D159" s="5" t="inlineStr"/>
       <c r="E159" s="5" t="inlineStr">
         <is>
-          <t>THE GOLDEN AGE
-The fiat crisis has begun. So what wins in the end: gold, digital gold, or some other kind of precious metal or cryptocurrency? Only time will tell, and different assets have different failure modes, but here are some thoughts.
-(1) First: remember that Bitcoin's https://t.co/03JsYiJx0S</t>
+          <t>Wow. This is massive and honestly well deserved.
+ElevenLabs is officially a decacorn now. $500M raised, $11B valuation, strong ARR, real enterprise adoption, and still doubling down on research + product quality. We don’t see this combo often.
+Big congrats to everyone at</t>
         </is>
       </c>
       <c r="F159" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/balajis/status/2017185808848134538</t>
+          <t>https://x.com/egeberkina/status/2019056454380949756</t>
         </is>
       </c>
       <c r="G159" s="7" t="n">
-        <v>2454</v>
+        <v>15</v>
       </c>
       <c r="H159" s="7" t="n">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>Fri Jan 30 10:39:08 +0000 2026</t>
+          <t>Wed Feb 04 14:32:25 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -6878,34 +6904,41 @@
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>@balajis</t>
+          <t>@egeberkina</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>Balaji Srinivasan</t>
+          <t>egeberkina</t>
         </is>
       </c>
       <c r="D160" s="5" t="inlineStr"/>
       <c r="E160" s="5" t="inlineStr">
         <is>
-          <t>RT @a16z: Balaji Srinivasan proposes a western version of the special economic zone where builders can operate at the speed of physics, not…</t>
+          <t>Body Contouring with Nano Banana Pro
+{
+  "task": "ultra_realistic_before_after_body_contouring_transformation",
+  "output": {
+    "type": "single_image_split_comparison",
+    "layout": "side_by_side_before_after",
+    "resolution": "ultra_high_resolution",
+    "realism": https://t.co/FwPDvrZUHs</t>
         </is>
       </c>
       <c r="F160" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/balajis/status/2016922126222315664</t>
+          <t>https://x.com/egeberkina/status/2019016314820644891</t>
         </is>
       </c>
       <c r="G160" s="7" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="H160" s="7" t="n">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>Thu Jan 29 17:11:22 +0000 2026</t>
+          <t>Wed Feb 04 11:52:55 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -6917,35 +6950,35 @@
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>@balajis</t>
+          <t>@egeberkina</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>Balaji Srinivasan</t>
+          <t>egeberkina</t>
         </is>
       </c>
       <c r="D161" s="5" t="inlineStr"/>
       <c r="E161" s="5" t="inlineStr">
         <is>
-          <t>Much of any digital job is now preparing context for AI models.
-Organizing files in folders, naming everything correctly, introducing things in the right order, and only then asking the AI to do something in clear written English.</t>
+          <t>Morning coffee ☕️
+--sref 1502059545 https://t.co/qQq8lRpjwR</t>
         </is>
       </c>
       <c r="F161" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/balajis/status/2016443010360414610</t>
+          <t>https://x.com/egeberkina/status/2018976414876541338</t>
         </is>
       </c>
       <c r="G161" s="7" t="n">
-        <v>3807</v>
+        <v>24</v>
       </c>
       <c r="H161" s="7" t="n">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
-          <t>Wed Jan 28 09:27:32 +0000 2026</t>
+          <t>Wed Feb 04 09:14:22 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -6957,37 +6990,1703 @@
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>@balajis</t>
+          <t>@egeberkina</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>Balaji Srinivasan</t>
+          <t>egeberkina</t>
         </is>
       </c>
       <c r="D162" s="5" t="inlineStr"/>
       <c r="E162" s="5" t="inlineStr">
         <is>
-          <t>PERSONAL PRIVATE PROGRAMMABLE
-I’ve been thinking more about the intersection of Claude Code and Obsidian. There is an upcoming tech stack here that I’m calling personal private programmable.
-Here’s a sketch of the idea.
-First, if you squint ahead a few months, we will likely</t>
+          <t>just the most basic sref
+--sref 1502059545 https://t.co/kXCfo4lw76</t>
         </is>
       </c>
       <c r="F162" s="6" t="inlineStr">
         <is>
-          <t>https://x.com/balajis/status/2016437837013660071</t>
+          <t>https://x.com/egeberkina/status/2018771997489349053</t>
         </is>
       </c>
       <c r="G162" s="7" t="n">
-        <v>2245</v>
+        <v>385</v>
       </c>
       <c r="H162" s="7" t="n">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="I162" s="2" t="inlineStr">
         <is>
-          <t>Wed Jan 28 09:06:58 +0000 2026</t>
+          <t>Tue Feb 03 19:42:05 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" ht="30" customHeight="1">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D163" s="5" t="inlineStr"/>
+      <c r="E163" s="5" t="inlineStr">
+        <is>
+          <t>Work hard 💪
+{
+ "task": "ultra_realistic_before_after_fitness_transformation",
+ "output": {
+ "type": "single_image_split_comparison",
+ "layout": "side_by_side_before_after",
+ "resolution": "ultra_high_resolution",
+ "realism": "raw_photographic_realism",
+ "quality": https://t.co/b5Ed7QNBVo</t>
+        </is>
+      </c>
+      <c r="F163" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2018734446074093603</t>
+        </is>
+      </c>
+      <c r="G163" s="7" t="n">
+        <v>371</v>
+      </c>
+      <c r="H163" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="I163" s="2" t="inlineStr">
+        <is>
+          <t>Tue Feb 03 17:12:52 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" ht="30" customHeight="1">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B164" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D164" s="5" t="inlineStr"/>
+      <c r="E164" s="5" t="inlineStr">
+        <is>
+          <t>Create motion from a single prompt and fine tune it live https://t.co/oBZi87XFqb</t>
+        </is>
+      </c>
+      <c r="F164" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2018709715014812094</t>
+        </is>
+      </c>
+      <c r="G164" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H164" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2" t="inlineStr">
+        <is>
+          <t>Tue Feb 03 15:34:36 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="30" customHeight="1">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D165" s="5" t="inlineStr"/>
+      <c r="E165" s="5" t="inlineStr">
+        <is>
+          <t>RT @egeberkina: Nose filler 👃
+{
+  "subject": "before and after non-surgical nose filler comparison of the same woman",
+  "composition": {…</t>
+        </is>
+      </c>
+      <c r="F165" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2018705776433303713</t>
+        </is>
+      </c>
+      <c r="G165" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I165" s="2" t="inlineStr">
+        <is>
+          <t>Tue Feb 03 15:18:57 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="30" customHeight="1">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D166" s="5" t="inlineStr"/>
+      <c r="E166" s="5" t="inlineStr">
+        <is>
+          <t>From blueprint to moment
+Prompt: Using the uploaded image as the base, transform selected parts of the main subject into a hand-drawn sketch illustration. Keep the lower structure photorealistic, but redraw the upper sections with loose black ink lines, architectural sketch https://t.co/c0MxkYiePI</t>
+        </is>
+      </c>
+      <c r="F166" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2018673428824219705</t>
+        </is>
+      </c>
+      <c r="G166" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="H166" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I166" s="2" t="inlineStr">
+        <is>
+          <t>Tue Feb 03 13:10:25 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="30" customHeight="1">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D167" s="5" t="inlineStr"/>
+      <c r="E167" s="5" t="inlineStr">
+        <is>
+          <t>RT @egeberkina: Every setback is a setup for a comeback 🎾
+--sref 1158864198 https://t.co/zPLdi2Z0Zb</t>
+        </is>
+      </c>
+      <c r="F167" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2018588998265090292</t>
+        </is>
+      </c>
+      <c r="G167" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" s="7" t="n">
+        <v>68</v>
+      </c>
+      <c r="I167" s="2" t="inlineStr">
+        <is>
+          <t>Tue Feb 03 07:34:55 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="30" customHeight="1">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D168" s="5" t="inlineStr"/>
+      <c r="E168" s="5" t="inlineStr">
+        <is>
+          <t>Feels oddly calm
+--sref 2224065556 https://t.co/NnH8X7oiZd</t>
+        </is>
+      </c>
+      <c r="F168" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2018399459634520417</t>
+        </is>
+      </c>
+      <c r="G168" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="H168" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="I168" s="2" t="inlineStr">
+        <is>
+          <t>Mon Feb 02 19:01:45 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="30" customHeight="1">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D169" s="5" t="inlineStr"/>
+      <c r="E169" s="5" t="inlineStr">
+        <is>
+          <t>Nose filler 👃
+{
+  "subject": "before and after non-surgical nose filler comparison of the same woman",
+  "composition": {
+    "layout": "side-by-side comparison",
+    "camera_angle": "true side profile",
+    "framing": "nose, lips, chin",
+    "camera_height": "nose level", https://t.co/9Ycu9CKuTR</t>
+        </is>
+      </c>
+      <c r="F169" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2018318286661022032</t>
+        </is>
+      </c>
+      <c r="G169" s="7" t="n">
+        <v>329</v>
+      </c>
+      <c r="H169" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I169" s="2" t="inlineStr">
+        <is>
+          <t>Mon Feb 02 13:39:12 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" ht="30" customHeight="1">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B170" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D170" s="5" t="inlineStr"/>
+      <c r="E170" s="5" t="inlineStr">
+        <is>
+          <t>RT @egeberkina: Sports on paint 🏒
+{
+  "project": "Miniature Sport on Abstract Paint Surface",
+  "concept": {
+    "idea": "Tiny athletes i…</t>
+        </is>
+      </c>
+      <c r="F170" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2018258434034909526</t>
+        </is>
+      </c>
+      <c r="G170" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>Mon Feb 02 09:41:22 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="30" customHeight="1">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D171" s="5" t="inlineStr"/>
+      <c r="E171" s="5" t="inlineStr">
+        <is>
+          <t>Every setback is a setup for a comeback 🎾
+--sref 1158864198 https://t.co/zPLdi2Z0Zb</t>
+        </is>
+      </c>
+      <c r="F171" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2018065102877163663</t>
+        </is>
+      </c>
+      <c r="G171" s="7" t="n">
+        <v>960</v>
+      </c>
+      <c r="H171" s="7" t="n">
+        <v>68</v>
+      </c>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>Sun Feb 01 20:53:09 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" ht="30" customHeight="1">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D172" s="5" t="inlineStr"/>
+      <c r="E172" s="5" t="inlineStr">
+        <is>
+          <t>RT @egeberkina: Sydney
+{
+ "reference_images": {
+ "product_image": "UPLOADED_IMAGE",
+ "usage_rule": "Use the uploaded image as the exact vi…</t>
+        </is>
+      </c>
+      <c r="F172" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2018044330422731050</t>
+        </is>
+      </c>
+      <c r="G172" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" s="7" t="n">
+        <v>67</v>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>Sun Feb 01 19:30:36 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" ht="30" customHeight="1">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D173" s="5" t="inlineStr"/>
+      <c r="E173" s="5" t="inlineStr">
+        <is>
+          <t>How can you think and hit at the same time? ⚾️
+Prompt 👇 https://t.co/J67mtCwl6S</t>
+        </is>
+      </c>
+      <c r="F173" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2018011153075441823</t>
+        </is>
+      </c>
+      <c r="G173" s="7" t="n">
+        <v>107</v>
+      </c>
+      <c r="H173" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>Sun Feb 01 17:18:46 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="30" customHeight="1">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>@egeberkina</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>egeberkina</t>
+        </is>
+      </c>
+      <c r="D174" s="5" t="inlineStr"/>
+      <c r="E174" s="5" t="inlineStr">
+        <is>
+          <t>Sports on paint 🏒
+{
+  "project": "Miniature Sport on Abstract Paint Surface",
+  "concept": {
+    "idea": "Tiny athletes interacting with a surreal environment made entirely of thick paint",
+    "theme": "Scale contrast between miniature humans and oversized abstract textures", https://t.co/s0gQmBmbzw</t>
+        </is>
+      </c>
+      <c r="F174" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/egeberkina/status/2017908794433613887</t>
+        </is>
+      </c>
+      <c r="G174" s="7" t="n">
+        <v>351</v>
+      </c>
+      <c r="H174" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>Sun Feb 01 10:32:02 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="30" customHeight="1">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>@AmirMushich</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>AmirMushich</t>
+        </is>
+      </c>
+      <c r="D175" s="4" t="inlineStr">
+        <is>
+          <t>@AmirMushich分享了Nano Banana设计工具的多种实用prompt，包括高端设计、品牌历史和快速生成品牌素材等，并分析了X平台点赞动画带来的商业价值。</t>
+        </is>
+      </c>
+      <c r="E175" s="5" t="inlineStr">
+        <is>
+          <t>50 prompts from ex-Warner designer
+I’ve curated my best design prompts for Nano Banana in this article 
+Inside you get:
+- high end prompts
+- easy navigation 
+- bonus 🎁
+Save this article.
+Come back for a specific prompt every time you need it
+No need to “comment”
+Just create.</t>
+        </is>
+      </c>
+      <c r="F175" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AmirMushich/status/2019177484403507606</t>
+        </is>
+      </c>
+      <c r="G175" s="7" t="n">
+        <v>160</v>
+      </c>
+      <c r="H175" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I175" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 22:33:21 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="30" customHeight="1">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>@AmirMushich</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>AmirMushich</t>
+        </is>
+      </c>
+      <c r="D176" s="5" t="inlineStr"/>
+      <c r="E176" s="5" t="inlineStr">
+        <is>
+          <t>$200m+ from a 48px animation? 
+Did you see the rocket animation on the X like button? 
+I clicked it 10+ times..
+Then I thought: “How this impacts a business?”
+So, I did a quick research..
+See the answer in numbers below.
+Details matter more than you think 👇 https://t.co/C7SAd4u4ui</t>
+        </is>
+      </c>
+      <c r="F176" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AmirMushich/status/2019019682947469445</t>
+        </is>
+      </c>
+      <c r="G176" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H176" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 12:06:18 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="30" customHeight="1">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>@AmirMushich</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>AmirMushich</t>
+        </is>
+      </c>
+      <c r="D177" s="5" t="inlineStr"/>
+      <c r="E177" s="5" t="inlineStr">
+        <is>
+          <t>Sources for my calculations:
+[1] https://t.co/uYXCPlkWo8
+[2] https://t.co/6tu4VbmBhu
+[3] https://t.co/L0cYRP3DKQ
+[4] https://t.co/h1t33TTbF1</t>
+        </is>
+      </c>
+      <c r="F177" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AmirMushich/status/2019019687083077861</t>
+        </is>
+      </c>
+      <c r="G177" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H177" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 12:06:19 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="30" customHeight="1">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>@AmirMushich</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>AmirMushich</t>
+        </is>
+      </c>
+      <c r="D178" s="5" t="inlineStr"/>
+      <c r="E178" s="5" t="inlineStr">
+        <is>
+          <t>RT @AmirMushich: Nano Banana design prompt:
+Vintage collage tribute poster
+Prompt 👇 https://t.co/YtLa21deL3</t>
+        </is>
+      </c>
+      <c r="F178" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AmirMushich/status/2018940478054686864</t>
+        </is>
+      </c>
+      <c r="G178" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 06:51:34 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="30" customHeight="1">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>@AmirMushich</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
+        <is>
+          <t>AmirMushich</t>
+        </is>
+      </c>
+      <c r="D179" s="5" t="inlineStr"/>
+      <c r="E179" s="5" t="inlineStr">
+        <is>
+          <t>Nano Banana design prompt:
+Vintage collage tribute poster
+Prompt 👇 https://t.co/YtLa21deL3</t>
+        </is>
+      </c>
+      <c r="F179" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AmirMushich/status/2018776000532717836</t>
+        </is>
+      </c>
+      <c r="G179" s="7" t="n">
+        <v>138</v>
+      </c>
+      <c r="H179" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>Tue Feb 03 19:58:00 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="30" customHeight="1">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>@AmirMushich</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>AmirMushich</t>
+        </is>
+      </c>
+      <c r="D180" s="5" t="inlineStr"/>
+      <c r="E180" s="5" t="inlineStr">
+        <is>
+          <t>RT @AmirMushich: 30 seconds → $1,000 brand kit
+This Nano Banana prompt generates
+• a clean &amp;amp; clear brand base doc,  
+• set of auto-adapte…</t>
+        </is>
+      </c>
+      <c r="F180" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AmirMushich/status/2018595039790727481</t>
+        </is>
+      </c>
+      <c r="G180" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>Tue Feb 03 07:58:55 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="30" customHeight="1">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>@AmirMushich</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>AmirMushich</t>
+        </is>
+      </c>
+      <c r="D181" s="5" t="inlineStr"/>
+      <c r="E181" s="5" t="inlineStr">
+        <is>
+          <t>1 prompt to become a brand history expert👀
+The prompt below is your guide to
+• design history
+• brands/products heritage
+• industrial evolution
+How to use it:
+1. Use Alex's workflow below 👇
+2. Add this ops-prompt to create a custom heritage:
+[Use this prompt structure to https://t.co/XKGHqgtVuv</t>
+        </is>
+      </c>
+      <c r="F181" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AmirMushich/status/2018449250406006985</t>
+        </is>
+      </c>
+      <c r="G181" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H181" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>Mon Feb 02 22:19:36 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="30" customHeight="1">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B182" s="3" t="inlineStr">
+        <is>
+          <t>@AmirMushich</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>AmirMushich</t>
+        </is>
+      </c>
+      <c r="D182" s="5" t="inlineStr"/>
+      <c r="E182" s="5" t="inlineStr">
+        <is>
+          <t>30 seconds → $1,000 brand kit
+This Nano Banana prompt generates
+• a clean &amp;amp; clear brand base doc,  
+• set of auto-adapted key visuals, colors, and mockups to any niche.  
+Just fill in [Brand name] &amp;amp; [industry] -  and ship it
+Save this prompt for later 👇 https://t.co/cgOxmyBIQE</t>
+        </is>
+      </c>
+      <c r="F182" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/AmirMushich/status/2018348054789640565</t>
+        </is>
+      </c>
+      <c r="G182" s="7" t="n">
+        <v>158</v>
+      </c>
+      <c r="H182" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>Mon Feb 02 15:37:30 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="30" customHeight="1">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D183" s="4" t="inlineStr">
+        <is>
+          <t>@vasuman今日推文关注企业AI应用、AI Agent构建，认为当前技术已能实现具体任务，无需过度关注AGI，并对Moltbook等技术提出质疑。</t>
+        </is>
+      </c>
+      <c r="E183" s="5" t="inlineStr">
+        <is>
+          <t>Just landed in San Fran who is down to chat AI???</t>
+        </is>
+      </c>
+      <c r="F183" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2019156650813452367</t>
+        </is>
+      </c>
+      <c r="G183" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="H183" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 21:10:34 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="30" customHeight="1">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B184" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D184" s="5" t="inlineStr"/>
+      <c r="E184" s="5" t="inlineStr">
+        <is>
+          <t>Why is the enterprise AI adoption debate centered around AGI
+You can already narrowly scope a set of tasks for an agent and have it handle them with high fidelity, low cost, and near-instant speed
+For every single client at Varick, we take the time to scope out what that looks</t>
+        </is>
+      </c>
+      <c r="F184" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018969782939431405</t>
+        </is>
+      </c>
+      <c r="G184" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="H184" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 08:48:01 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="30" customHeight="1">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D185" s="5" t="inlineStr"/>
+      <c r="E185" s="5" t="inlineStr">
+        <is>
+          <t>If Elon Musk's net worth was liquid:
+He could buy Coke + Disney + Starbucks + Nike + PayPal + DoorDash and still have ~$19B left over
+And he could buy every Fortune 500 company ranked ~369–500 by market cap - all 132 of them.
+Insane to wrap your head around</t>
+        </is>
+      </c>
+      <c r="F185" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018968692663734356</t>
+        </is>
+      </c>
+      <c r="G185" s="7" t="n">
+        <v>1592</v>
+      </c>
+      <c r="H185" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="I185" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 08:43:41 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="30" customHeight="1">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D186" s="5" t="inlineStr"/>
+      <c r="E186" s="5" t="inlineStr">
+        <is>
+          <t>Why do we need Moltbook as proof of bots replying to bots if we already have X</t>
+        </is>
+      </c>
+      <c r="F186" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018961138088882598</t>
+        </is>
+      </c>
+      <c r="G186" s="7" t="n">
+        <v>99</v>
+      </c>
+      <c r="H186" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 08:13:40 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="30" customHeight="1">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D187" s="5" t="inlineStr"/>
+      <c r="E187" s="5" t="inlineStr">
+        <is>
+          <t>Did Moltbook get VC funding or something lol there are still high profile individuals running astroturf campaigns pretending it's the most revolutionary piece of technology invented since GPT
+I really hate to come across as a hater - I get it, it's cool and all
+But this</t>
+        </is>
+      </c>
+      <c r="F187" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018956101858062574</t>
+        </is>
+      </c>
+      <c r="G187" s="7" t="n">
+        <v>85</v>
+      </c>
+      <c r="H187" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 07:53:39 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="30" customHeight="1">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B188" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D188" s="5" t="inlineStr"/>
+      <c r="E188" s="5" t="inlineStr">
+        <is>
+          <t>This isn't in Iman's defense or anyone in particular but this line of reasoning isn't correct. With all due respect to Dr Syed. 
+X is full of experts giving away sauce for free. 
+I made a multi-million dollar business building AI agents for enterprise. And I literally gave away</t>
+        </is>
+      </c>
+      <c r="F188" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018949441697538079</t>
+        </is>
+      </c>
+      <c r="G188" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="H188" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 07:27:11 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="30" customHeight="1">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D189" s="5" t="inlineStr"/>
+      <c r="E189" s="5" t="inlineStr">
+        <is>
+          <t>Codex is great because by the time your query finishes, the next model is released https://t.co/3WGSHpFhLM</t>
+        </is>
+      </c>
+      <c r="F189" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018849232657256852</t>
+        </is>
+      </c>
+      <c r="G189" s="7" t="n">
+        <v>256</v>
+      </c>
+      <c r="H189" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I189" s="2" t="inlineStr">
+        <is>
+          <t>Wed Feb 04 00:49:00 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="30" customHeight="1">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D190" s="5" t="inlineStr"/>
+      <c r="E190" s="5" t="inlineStr">
+        <is>
+          <t>Whether you use OpenClaw or don't (like me), it's helpful to read pieces like these to better understand the inner workings of AI. 
+This is how you upskill yourself over time.</t>
+        </is>
+      </c>
+      <c r="F190" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018774871980098002</t>
+        </is>
+      </c>
+      <c r="G190" s="7" t="n">
+        <v>570</v>
+      </c>
+      <c r="H190" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>Tue Feb 03 19:53:31 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="30" customHeight="1">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D191" s="5" t="inlineStr"/>
+      <c r="E191" s="5" t="inlineStr">
+        <is>
+          <t>claude-sonnet-5@20260203 codename 'fennec'</t>
+        </is>
+      </c>
+      <c r="F191" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018768283177189420</t>
+        </is>
+      </c>
+      <c r="G191" s="7" t="n">
+        <v>886</v>
+      </c>
+      <c r="H191" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="I191" s="2" t="inlineStr">
+        <is>
+          <t>Tue Feb 03 19:27:20 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" ht="30" customHeight="1">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B192" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C192" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D192" s="5" t="inlineStr"/>
+      <c r="E192" s="5" t="inlineStr">
+        <is>
+          <t>SF builders let's meet up! I'll be in town this week + weekend, would love to chat software/AI or optionally non-nerd stuff as well.
+Also anyone have Super Bowl viewing plans? Or an extra ticket to Rubin's Fanatics party / NFL Innovation Summit?</t>
+        </is>
+      </c>
+      <c r="F192" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018443012989403281</t>
+        </is>
+      </c>
+      <c r="G192" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="H192" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" s="2" t="inlineStr">
+        <is>
+          <t>Mon Feb 02 21:54:49 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="30" customHeight="1">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D193" s="5" t="inlineStr"/>
+      <c r="E193" s="5" t="inlineStr">
+        <is>
+          <t>The average person should not be using “multi agent swarms” for anything serious 
+Most of your tasks are going from  Point A to Point B
+You don’t need to disassemble yourself at the molecular level and then reassemble yourself to travel that distance
+Just get in a car 
+Stick</t>
+        </is>
+      </c>
+      <c r="F193" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018405227767230840</t>
+        </is>
+      </c>
+      <c r="G193" s="7" t="n">
+        <v>164</v>
+      </c>
+      <c r="H193" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>Mon Feb 02 19:24:41 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" ht="30" customHeight="1">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D194" s="5" t="inlineStr"/>
+      <c r="E194" s="5" t="inlineStr">
+        <is>
+          <t>I was the first person on the planet to say ClawdBot was overhyped and a waste of time
+A week later people are finally starting to admit it
+If you spend enough time with AI you can very easily tell what is possible and what isn’t. This makes it very easy to identify fake news</t>
+        </is>
+      </c>
+      <c r="F194" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018197519877206115</t>
+        </is>
+      </c>
+      <c r="G194" s="7" t="n">
+        <v>304</v>
+      </c>
+      <c r="H194" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="I194" s="2" t="inlineStr">
+        <is>
+          <t>Mon Feb 02 05:39:19 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="30" customHeight="1">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D195" s="5" t="inlineStr"/>
+      <c r="E195" s="5" t="inlineStr">
+        <is>
+          <t>I have said this for months but it is especially true ahead of this week’s potential AI releases:
+New models are great, but everything that truly moves the needle for you or your business is already possible. 
+Sonnet 5 or GPT 5.5 will not magically unlock enterprise use cases -</t>
+        </is>
+      </c>
+      <c r="F195" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018194892527489239</t>
+        </is>
+      </c>
+      <c r="G195" s="7" t="n">
+        <v>244</v>
+      </c>
+      <c r="H195" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>Mon Feb 02 05:28:53 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="30" customHeight="1">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B196" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C196" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D196" s="5" t="inlineStr"/>
+      <c r="E196" s="5" t="inlineStr">
+        <is>
+          <t>Part of making AI Agents robust is not just software resiliency, but also SOP resiliency.
+If your workflow shifting an inch results in your agent completely collapsing, you didn’t build an agent you built an if/else chain.
+Models are smart enough to handle context changes in</t>
+        </is>
+      </c>
+      <c r="F196" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2018193707590430721</t>
+        </is>
+      </c>
+      <c r="G196" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="H196" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I196" s="2" t="inlineStr">
+        <is>
+          <t>Mon Feb 02 05:24:10 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" ht="30" customHeight="1">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D197" s="5" t="inlineStr"/>
+      <c r="E197" s="5" t="inlineStr">
+        <is>
+          <t>A very helpful rundown from one of the goats of YouTube</t>
+        </is>
+      </c>
+      <c r="F197" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2017716973807817123</t>
+        </is>
+      </c>
+      <c r="G197" s="7" t="n">
+        <v>99</v>
+      </c>
+      <c r="H197" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I197" s="2" t="inlineStr">
+        <is>
+          <t>Sat Jan 31 21:49:48 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" ht="30" customHeight="1">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B198" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D198" s="5" t="inlineStr"/>
+      <c r="E198" s="5" t="inlineStr">
+        <is>
+          <t>RT @alex_prompter: the best 20 accounts to follow in AI:
+@karpathy = LLMs king
+@steipete = built openclaw
+@gregisenberg = startup ideas ki…</t>
+        </is>
+      </c>
+      <c r="F198" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2017691186471772214</t>
+        </is>
+      </c>
+      <c r="G198" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" s="7" t="n">
+        <v>1371</v>
+      </c>
+      <c r="I198" s="2" t="inlineStr">
+        <is>
+          <t>Sat Jan 31 20:07:20 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" ht="30" customHeight="1">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D199" s="5" t="inlineStr"/>
+      <c r="E199" s="5" t="inlineStr">
+        <is>
+          <t>I owe you all an honest apology. For a while now, I've been using AI to write my tweets, and that's not fair to any of you. You followed me for my voice, my thoughts, and my perspective — and instead, I handed that off to a machine. That was a betrayal of the trust you placed in</t>
+        </is>
+      </c>
+      <c r="F199" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2017676678391029919</t>
+        </is>
+      </c>
+      <c r="G199" s="7" t="n">
+        <v>2428</v>
+      </c>
+      <c r="H199" s="7" t="n">
+        <v>86</v>
+      </c>
+      <c r="I199" s="2" t="inlineStr">
+        <is>
+          <t>Sat Jan 31 19:09:41 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" ht="30" customHeight="1">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B200" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D200" s="5" t="inlineStr"/>
+      <c r="E200" s="5" t="inlineStr">
+        <is>
+          <t>Holy cow dude! Look at what the AI said on the social media for AI! Haha dude wow this is the singularity bro! Skynet bro!
+Generational psyop https://t.co/lN9WRtfdWY</t>
+        </is>
+      </c>
+      <c r="F200" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2017379872197283945</t>
+        </is>
+      </c>
+      <c r="G200" s="7" t="n">
+        <v>620</v>
+      </c>
+      <c r="H200" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="I200" s="2" t="inlineStr">
+        <is>
+          <t>Fri Jan 30 23:30:17 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="30" customHeight="1">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D201" s="5" t="inlineStr"/>
+      <c r="E201" s="5" t="inlineStr">
+        <is>
+          <t>New requirement to get into MoltBook https://t.co/zyumTojPuo</t>
+        </is>
+      </c>
+      <c r="F201" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2017360694258147411</t>
+        </is>
+      </c>
+      <c r="G201" s="7" t="n">
+        <v>4573</v>
+      </c>
+      <c r="H201" s="7" t="n">
+        <v>461</v>
+      </c>
+      <c r="I201" s="2" t="inlineStr">
+        <is>
+          <t>Fri Jan 30 22:14:04 +0000 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" ht="30" customHeight="1">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B202" s="3" t="inlineStr">
+        <is>
+          <t>@vasuman</t>
+        </is>
+      </c>
+      <c r="C202" s="3" t="inlineStr">
+        <is>
+          <t>vasuman</t>
+        </is>
+      </c>
+      <c r="D202" s="5" t="inlineStr"/>
+      <c r="E202" s="5" t="inlineStr">
+        <is>
+          <t>Genie 3 by Google AI Studio is absolutely incredible https://t.co/mbRhk0z29M</t>
+        </is>
+      </c>
+      <c r="F202" s="6" t="inlineStr">
+        <is>
+          <t>https://x.com/vasuman/status/2016957235721601504</t>
+        </is>
+      </c>
+      <c r="G202" s="7" t="n">
+        <v>6098</v>
+      </c>
+      <c r="H202" s="7" t="n">
+        <v>318</v>
+      </c>
+      <c r="I202" s="2" t="inlineStr">
+        <is>
+          <t>Thu Jan 29 19:30:52 +0000 2026</t>
         </is>
       </c>
     </row>
@@ -7154,6 +8853,46 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F160" r:id="rId159"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F161" r:id="rId160"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F162" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F163" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F164" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F165" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F166" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F167" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F168" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F169" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F170" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F171" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F172" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F173" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F174" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F175" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F176" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F177" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F178" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F179" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F180" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F181" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F182" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F183" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F184" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F185" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F186" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F187" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F188" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F189" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F190" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F191" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F192" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F193" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F194" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F195" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F196" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F197" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F198" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F199" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F200" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F201" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F202" r:id="rId201"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
